--- a/bin/妖怪收账.xlsx
+++ b/bin/妖怪收账.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BK$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BK$97</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="145">
   <si>
     <t>睡面虎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采花小君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>崆峒印</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,10 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浪爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>泥垢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,10 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苦包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>远古神石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,30 +514,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>咚仔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>墨悬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>呵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圣诞袜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,10 +578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不倒翁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,7 +586,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呆萌姬</t>
+    <t>蓝采和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹国舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,13 +1024,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BK2" sqref="A2:BK103"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1058,16 +1046,16 @@
   <sheetData>
     <row r="1" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
@@ -1085,7 +1073,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>31</v>
@@ -1094,10 +1082,10 @@
         <v>60</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>65</v>
@@ -1106,40 +1094,40 @@
         <v>27</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="V1" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W1" s="9" t="s">
         <v>57</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC1" s="8" t="s">
         <v>10</v>
@@ -1151,25 +1139,25 @@
         <v>39</v>
       </c>
       <c r="AF1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AG1" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="AH1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="AJ1" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM1" s="10" t="s">
         <v>5</v>
@@ -1181,13 +1169,13 @@
         <v>53</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AR1" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS1" s="11" t="s">
         <v>6</v>
@@ -1205,7 +1193,7 @@
         <v>55</v>
       </c>
       <c r="AX1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AY1" s="8" t="s">
         <v>16</v>
@@ -1244,7 +1232,7 @@
         <v>49</v>
       </c>
       <c r="BK1" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.15">
@@ -1329,7 +1317,7 @@
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1">
-        <f>SUM(E2:BJ2)</f>
+        <f t="shared" ref="BK2:BK32" si="0">SUM(E2:BJ2)</f>
         <v>60</v>
       </c>
     </row>
@@ -1409,7 +1397,7 @@
       <c r="BI3" s="1"/>
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1">
-        <f>SUM(E3:BJ3)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1493,7 +1481,7 @@
       <c r="BI4" s="1"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1">
-        <f>SUM(E4:BJ4)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -1577,7 +1565,7 @@
       <c r="BI5" s="1"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1">
-        <f>SUM(E5:BJ5)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1657,7 +1645,7 @@
       <c r="BI6" s="1"/>
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1">
-        <f>SUM(E6:BJ6)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1737,7 +1725,7 @@
       <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1">
-        <f>SUM(E7:BJ7)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1815,7 +1803,7 @@
       <c r="BI8" s="1"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1">
-        <f>SUM(E8:BJ8)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1899,7 +1887,7 @@
       <c r="BI9" s="1"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1">
-        <f>SUM(E9:BJ9)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -1983,7 +1971,7 @@
       <c r="BI10" s="1"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1">
-        <f>SUM(E10:BJ10)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -1992,7 +1980,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -2061,7 +2049,7 @@
       <c r="BI11" s="1"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1">
-        <f>SUM(E11:BJ11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2070,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -2139,7 +2127,7 @@
       <c r="BI12" s="1"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1">
-        <f>SUM(E12:BJ12)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -2148,7 +2136,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -2219,7 +2207,7 @@
       <c r="BI13" s="1"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1">
-        <f>SUM(E13:BJ13)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2228,7 +2216,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -2299,7 +2287,7 @@
       <c r="BI14" s="1"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1">
-        <f>SUM(E14:BJ14)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -2383,7 +2371,7 @@
       <c r="BI15" s="1"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1">
-        <f>SUM(E15:BJ15)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -2467,7 +2455,7 @@
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1">
-        <f>SUM(E16:BJ16)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -2547,7 +2535,7 @@
       <c r="BI17" s="1"/>
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1">
-        <f>SUM(E17:BJ17)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2625,7 +2613,7 @@
       <c r="BI18" s="1"/>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1">
-        <f>SUM(E18:BJ18)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2703,7 +2691,7 @@
       <c r="BI19" s="1"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1">
-        <f>SUM(E19:BJ19)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2781,7 +2769,7 @@
       <c r="BI20" s="1"/>
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1">
-        <f>SUM(E20:BJ20)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2861,7 +2849,7 @@
       <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1">
-        <f>SUM(E21:BJ21)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2945,7 +2933,7 @@
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1">
-        <f>SUM(E22:BJ22)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -3029,7 +3017,7 @@
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1">
-        <f>SUM(E23:BJ23)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3113,7 +3101,7 @@
         <v>50</v>
       </c>
       <c r="BK24" s="1">
-        <f>SUM(E24:BJ24)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
@@ -3197,7 +3185,7 @@
       <c r="BI25" s="1"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1">
-        <f>SUM(E25:BJ25)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -3206,7 +3194,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
@@ -3275,7 +3263,7 @@
       <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1">
-        <f>SUM(E26:BJ26)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3284,7 +3272,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
@@ -3353,7 +3341,7 @@
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1">
-        <f>SUM(E27:BJ27)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -3362,7 +3350,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
@@ -3433,7 +3421,7 @@
       <c r="BI28" s="1"/>
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1">
-        <f>SUM(E28:BJ28)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3442,7 +3430,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
@@ -3515,7 +3503,7 @@
       <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1">
-        <f>SUM(E29:BJ29)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -3524,7 +3512,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
@@ -3593,7 +3581,7 @@
       <c r="BI30" s="1"/>
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1">
-        <f>SUM(E30:BJ30)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3602,7 +3590,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>33</v>
@@ -3671,22 +3659,22 @@
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1">
-        <f>SUM(E31:BJ31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -3712,13 +3700,13 @@
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
-      <c r="AC32" s="1">
-        <v>1</v>
-      </c>
+      <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
+      <c r="AG32" s="1">
+        <v>5</v>
+      </c>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
@@ -3749,22 +3737,22 @@
       <c r="BI32" s="1"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1">
-        <f>SUM(E32:BJ32)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -3793,10 +3781,10 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1">
+      <c r="AF33" s="1">
         <v>5</v>
       </c>
+      <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
@@ -3827,22 +3815,22 @@
       <c r="BI33" s="1"/>
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1">
-        <f>SUM(E33:BJ33)</f>
+        <f t="shared" ref="BK33:BK60" si="1">SUM(E33:BJ33)</f>
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -3871,9 +3859,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
-      <c r="AF34" s="1">
-        <v>5</v>
-      </c>
+      <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
@@ -3882,22 +3868,30 @@
       <c r="AL34" s="1"/>
       <c r="AM34" s="4"/>
       <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
+      <c r="AO34" s="4">
+        <v>15</v>
+      </c>
       <c r="AP34" s="4"/>
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
+      <c r="AV34" s="2">
+        <v>15</v>
+      </c>
       <c r="AW34" s="2"/>
       <c r="AX34" s="2"/>
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
-      <c r="BC34" s="1"/>
-      <c r="BD34" s="1"/>
+      <c r="BC34" s="1">
+        <v>15</v>
+      </c>
+      <c r="BD34" s="1">
+        <v>15</v>
+      </c>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
       <c r="BG34" s="1"/>
@@ -3905,13 +3899,13 @@
       <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1">
-        <f>SUM(E34:BJ34)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>51</v>
@@ -3920,7 +3914,7 @@
         <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -3958,30 +3952,30 @@
       <c r="AL35" s="1"/>
       <c r="AM35" s="4"/>
       <c r="AN35" s="4"/>
-      <c r="AO35" s="4">
-        <v>15</v>
-      </c>
+      <c r="AO35" s="4"/>
       <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
       <c r="AR35" s="4"/>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2"/>
-      <c r="AV35" s="2">
-        <v>15</v>
-      </c>
+      <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
-      <c r="AY35" s="1"/>
-      <c r="AZ35" s="1"/>
-      <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
-      <c r="BC35" s="1">
-        <v>15</v>
-      </c>
-      <c r="BD35" s="1">
-        <v>15</v>
-      </c>
+      <c r="AY35" s="1">
+        <v>20</v>
+      </c>
+      <c r="AZ35" s="1">
+        <v>20</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>20</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>20</v>
+      </c>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
       <c r="BG35" s="1"/>
@@ -3989,16 +3983,16 @@
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1">
-        <f>SUM(E35:BJ35)</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>52</v>
@@ -4007,9 +4001,13 @@
         <v>26</v>
       </c>
       <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="6">
+        <v>6</v>
+      </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="6">
+        <v>6</v>
+      </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -4042,7 +4040,9 @@
       <c r="AL36" s="1"/>
       <c r="AM36" s="4"/>
       <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
+      <c r="AO36" s="4">
+        <v>10</v>
+      </c>
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
@@ -4050,20 +4050,14 @@
       <c r="AT36" s="2"/>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2"/>
-      <c r="AW36" s="2"/>
+      <c r="AW36" s="2">
+        <v>10</v>
+      </c>
       <c r="AX36" s="2"/>
-      <c r="AY36" s="1">
-        <v>20</v>
-      </c>
-      <c r="AZ36" s="1">
-        <v>20</v>
-      </c>
-      <c r="BA36" s="1">
-        <v>20</v>
-      </c>
-      <c r="BB36" s="1">
-        <v>20</v>
-      </c>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
@@ -4073,31 +4067,29 @@
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1">
-        <f>SUM(E36:BJ36)</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="6">
-        <v>6</v>
-      </c>
+      <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -4112,7 +4104,9 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
+      <c r="W37" s="6">
+        <v>5</v>
+      </c>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
@@ -4130,9 +4124,7 @@
       <c r="AL37" s="1"/>
       <c r="AM37" s="4"/>
       <c r="AN37" s="4"/>
-      <c r="AO37" s="4">
-        <v>10</v>
-      </c>
+      <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
@@ -4140,9 +4132,7 @@
       <c r="AT37" s="2"/>
       <c r="AU37" s="2"/>
       <c r="AV37" s="2"/>
-      <c r="AW37" s="2">
-        <v>10</v>
-      </c>
+      <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
@@ -4157,16 +4147,16 @@
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1">
-        <f>SUM(E37:BJ37)</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>52</v>
@@ -4237,33 +4227,35 @@
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1">
-        <f>SUM(E38:BJ38)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="L39" s="6">
+        <v>6</v>
+      </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -4274,9 +4266,7 @@
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
-      <c r="W39" s="6">
-        <v>5</v>
-      </c>
+      <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
@@ -4294,12 +4284,16 @@
       <c r="AL39" s="1"/>
       <c r="AM39" s="4"/>
       <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
+      <c r="AO39" s="4">
+        <v>10</v>
+      </c>
       <c r="AP39" s="4"/>
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
       <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
+      <c r="AT39" s="2">
+        <v>10</v>
+      </c>
       <c r="AU39" s="2"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
@@ -4317,38 +4311,36 @@
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1">
-        <f>SUM(E39:BJ39)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E40" s="6"/>
-      <c r="F40" s="6">
-        <v>6</v>
-      </c>
+      <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="6">
-        <v>6</v>
-      </c>
+      <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
+      <c r="O40" s="6">
+        <v>5</v>
+      </c>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -4356,7 +4348,9 @@
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
+      <c r="W40" s="6">
+        <v>5</v>
+      </c>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
@@ -4374,16 +4368,12 @@
       <c r="AL40" s="1"/>
       <c r="AM40" s="4"/>
       <c r="AN40" s="4"/>
-      <c r="AO40" s="4">
-        <v>10</v>
-      </c>
+      <c r="AO40" s="4"/>
       <c r="AP40" s="4"/>
       <c r="AQ40" s="4"/>
       <c r="AR40" s="4"/>
       <c r="AS40" s="2"/>
-      <c r="AT40" s="2">
-        <v>10</v>
-      </c>
+      <c r="AT40" s="2"/>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
@@ -4401,13 +4391,13 @@
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1">
-        <f>SUM(E40:BJ40)</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>63</v>
@@ -4416,7 +4406,7 @@
         <v>52</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -4425,11 +4415,13 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="L41" s="6">
+        <v>6</v>
+      </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -4438,9 +4430,7 @@
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
-      <c r="W41" s="6">
-        <v>5</v>
-      </c>
+      <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
@@ -4458,12 +4448,16 @@
       <c r="AL41" s="1"/>
       <c r="AM41" s="4"/>
       <c r="AN41" s="4"/>
-      <c r="AO41" s="4"/>
+      <c r="AO41" s="4">
+        <v>10</v>
+      </c>
       <c r="AP41" s="4"/>
       <c r="AQ41" s="4"/>
       <c r="AR41" s="4"/>
       <c r="AS41" s="2"/>
-      <c r="AT41" s="2"/>
+      <c r="AT41" s="2">
+        <v>10</v>
+      </c>
       <c r="AU41" s="2"/>
       <c r="AV41" s="2"/>
       <c r="AW41" s="2"/>
@@ -4481,16 +4475,16 @@
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1">
-        <f>SUM(E41:BJ41)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>52</v>
@@ -4499,20 +4493,20 @@
         <v>13</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="F42" s="6">
+        <v>6</v>
+      </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6">
+        <v>6</v>
+      </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="6">
-        <v>6</v>
-      </c>
+      <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="6">
-        <v>6</v>
-      </c>
+      <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -4545,10 +4539,10 @@
       <c r="AQ42" s="4"/>
       <c r="AR42" s="4"/>
       <c r="AS42" s="2"/>
-      <c r="AT42" s="2">
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2">
         <v>10</v>
       </c>
-      <c r="AU42" s="2"/>
       <c r="AV42" s="2"/>
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
@@ -4565,22 +4559,22 @@
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1">
-        <f>SUM(E42:BJ42)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -4589,10 +4583,10 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="6">
+      <c r="L43" s="6"/>
+      <c r="M43" s="6">
         <v>5</v>
       </c>
-      <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -4643,16 +4637,16 @@
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1">
-        <f>SUM(E43:BJ43)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>52</v>
@@ -4660,19 +4654,19 @@
       <c r="D44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6">
+      <c r="E44" s="6">
         <v>6</v>
       </c>
+      <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="6">
-        <v>6</v>
-      </c>
+      <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="M44" s="6">
+        <v>6</v>
+      </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -4727,22 +4721,22 @@
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1">
-        <f>SUM(E44:BJ44)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -4752,14 +4746,14 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="6">
-        <v>5</v>
-      </c>
+      <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+      <c r="R45" s="6">
+        <v>5</v>
+      </c>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
@@ -4805,26 +4799,24 @@
       <c r="BI45" s="1"/>
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1">
-        <f>SUM(E45:BJ45)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="6">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -4832,14 +4824,14 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="6">
-        <v>6</v>
-      </c>
+      <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+      <c r="R46" s="6">
+        <v>5</v>
+      </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
@@ -4862,17 +4854,13 @@
       <c r="AL46" s="1"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
-      <c r="AO46" s="4">
-        <v>10</v>
-      </c>
+      <c r="AO46" s="4"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
-      <c r="AU46" s="2">
-        <v>10</v>
-      </c>
+      <c r="AU46" s="2"/>
       <c r="AV46" s="2"/>
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
@@ -4889,22 +4877,22 @@
       <c r="BI46" s="1"/>
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1">
-        <f>SUM(E46:BJ46)</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -4967,22 +4955,22 @@
       <c r="BI47" s="1"/>
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1">
-        <f>SUM(E47:BJ47)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -4997,9 +4985,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
-      <c r="R48" s="6">
-        <v>5</v>
-      </c>
+      <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
@@ -5010,7 +4996,9 @@
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
-      <c r="AC48" s="1"/>
+      <c r="AC48" s="1">
+        <v>1</v>
+      </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
@@ -5045,16 +5033,16 @@
       <c r="BI48" s="1"/>
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1">
-        <f>SUM(E48:BJ48)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>52</v>
@@ -5075,9 +5063,7 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
-      <c r="R49" s="6">
-        <v>4</v>
-      </c>
+      <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
@@ -5088,7 +5074,9 @@
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
-      <c r="AC49" s="1"/>
+      <c r="AC49" s="1">
+        <v>1</v>
+      </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
@@ -5123,27 +5111,31 @@
       <c r="BI49" s="1"/>
       <c r="BJ49" s="1"/>
       <c r="BK49" s="1">
-        <f>SUM(E49:BJ49)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="6">
+        <v>15</v>
+      </c>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="H50" s="6">
+        <v>15</v>
+      </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -5160,9 +5152,7 @@
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
-      <c r="Y50" s="6">
-        <v>3</v>
-      </c>
+      <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
@@ -5179,7 +5169,9 @@
       <c r="AM50" s="4"/>
       <c r="AN50" s="4"/>
       <c r="AO50" s="4"/>
-      <c r="AP50" s="4"/>
+      <c r="AP50" s="4">
+        <v>15</v>
+      </c>
       <c r="AQ50" s="4"/>
       <c r="AR50" s="4"/>
       <c r="AS50" s="2"/>
@@ -5187,7 +5179,9 @@
       <c r="AU50" s="2"/>
       <c r="AV50" s="2"/>
       <c r="AW50" s="2"/>
-      <c r="AX50" s="2"/>
+      <c r="AX50" s="2">
+        <v>15</v>
+      </c>
       <c r="AY50" s="1"/>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
@@ -5201,22 +5195,22 @@
       <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1">
-        <f>SUM(E50:BJ50)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -5231,9 +5225,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
-      <c r="R51" s="6">
-        <v>5</v>
-      </c>
+      <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
@@ -5268,10 +5260,18 @@
       <c r="AX51" s="2"/>
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
-      <c r="BA51" s="1"/>
-      <c r="BB51" s="1"/>
-      <c r="BC51" s="1"/>
-      <c r="BD51" s="1"/>
+      <c r="BA51" s="1">
+        <v>20</v>
+      </c>
+      <c r="BB51" s="1">
+        <v>20</v>
+      </c>
+      <c r="BC51" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD51" s="1">
+        <v>20</v>
+      </c>
       <c r="BE51" s="1"/>
       <c r="BF51" s="1"/>
       <c r="BG51" s="1"/>
@@ -5279,19 +5279,19 @@
       <c r="BI51" s="1"/>
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1">
-        <f>SUM(E51:BJ51)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1</v>
@@ -5309,9 +5309,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
-      <c r="R52" s="6">
-        <v>3</v>
-      </c>
+      <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
@@ -5335,7 +5333,9 @@
       <c r="AM52" s="4"/>
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
-      <c r="AP52" s="4"/>
+      <c r="AP52" s="4">
+        <v>10</v>
+      </c>
       <c r="AQ52" s="4"/>
       <c r="AR52" s="4"/>
       <c r="AS52" s="2"/>
@@ -5343,7 +5343,9 @@
       <c r="AU52" s="2"/>
       <c r="AV52" s="2"/>
       <c r="AW52" s="2"/>
-      <c r="AX52" s="2"/>
+      <c r="AX52" s="2">
+        <v>10</v>
+      </c>
       <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
@@ -5357,22 +5359,22 @@
       <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1">
-        <f>SUM(E52:BJ52)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -5398,9 +5400,7 @@
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
-      <c r="AC53" s="1">
-        <v>1</v>
-      </c>
+      <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
@@ -5413,7 +5413,9 @@
       <c r="AM53" s="4"/>
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
-      <c r="AP53" s="4"/>
+      <c r="AP53" s="4">
+        <v>10</v>
+      </c>
       <c r="AQ53" s="4"/>
       <c r="AR53" s="4"/>
       <c r="AS53" s="2"/>
@@ -5421,7 +5423,9 @@
       <c r="AU53" s="2"/>
       <c r="AV53" s="2"/>
       <c r="AW53" s="2"/>
-      <c r="AX53" s="2"/>
+      <c r="AX53" s="2">
+        <v>10</v>
+      </c>
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -5435,33 +5439,37 @@
       <c r="BI53" s="1"/>
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1">
-        <f>SUM(E53:BJ53)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="G54" s="6">
+        <v>10</v>
+      </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
+      <c r="N54" s="6">
+        <v>10</v>
+      </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
@@ -5476,9 +5484,7 @@
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
-      <c r="AC54" s="1">
-        <v>1</v>
-      </c>
+      <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
@@ -5491,12 +5497,16 @@
       <c r="AM54" s="4"/>
       <c r="AN54" s="4"/>
       <c r="AO54" s="4"/>
-      <c r="AP54" s="4"/>
+      <c r="AP54" s="4">
+        <v>10</v>
+      </c>
       <c r="AQ54" s="4"/>
       <c r="AR54" s="4"/>
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
+      <c r="AU54" s="2">
+        <v>10</v>
+      </c>
       <c r="AV54" s="2"/>
       <c r="AW54" s="2"/>
       <c r="AX54" s="2"/>
@@ -5513,32 +5523,30 @@
       <c r="BI54" s="1"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1">
-        <f>SUM(E54:BJ54)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E55" s="6"/>
-      <c r="F55" s="6">
-        <v>15</v>
-      </c>
+      <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="6">
-        <v>15</v>
-      </c>
-      <c r="I55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6">
+        <v>5</v>
+      </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -5571,9 +5579,7 @@
       <c r="AM55" s="4"/>
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
-      <c r="AP55" s="4">
-        <v>15</v>
-      </c>
+      <c r="AP55" s="4"/>
       <c r="AQ55" s="4"/>
       <c r="AR55" s="4"/>
       <c r="AS55" s="2"/>
@@ -5581,9 +5587,7 @@
       <c r="AU55" s="2"/>
       <c r="AV55" s="2"/>
       <c r="AW55" s="2"/>
-      <c r="AX55" s="2">
-        <v>15</v>
-      </c>
+      <c r="AX55" s="2"/>
       <c r="AY55" s="1"/>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -5597,22 +5601,22 @@
       <c r="BI55" s="1"/>
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1">
-        <f>SUM(E55:BJ55)</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -5620,7 +5624,9 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="K56" s="6">
+        <v>5</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -5633,7 +5639,9 @@
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
+      <c r="X56" s="6">
+        <v>5</v>
+      </c>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
@@ -5662,18 +5670,10 @@
       <c r="AX56" s="2"/>
       <c r="AY56" s="1"/>
       <c r="AZ56" s="1"/>
-      <c r="BA56" s="1">
-        <v>20</v>
-      </c>
-      <c r="BB56" s="1">
-        <v>20</v>
-      </c>
-      <c r="BC56" s="1">
-        <v>20</v>
-      </c>
-      <c r="BD56" s="1">
-        <v>20</v>
-      </c>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
       <c r="BE56" s="1"/>
       <c r="BF56" s="1"/>
       <c r="BG56" s="1"/>
@@ -5681,22 +5681,22 @@
       <c r="BI56" s="1"/>
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1">
-        <f>SUM(E56:BJ56)</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -5730,14 +5730,14 @@
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
+      <c r="AK57" s="1">
+        <v>5</v>
+      </c>
       <c r="AL57" s="1"/>
       <c r="AM57" s="4"/>
       <c r="AN57" s="4"/>
       <c r="AO57" s="4"/>
-      <c r="AP57" s="4">
-        <v>10</v>
-      </c>
+      <c r="AP57" s="4"/>
       <c r="AQ57" s="4"/>
       <c r="AR57" s="4"/>
       <c r="AS57" s="2"/>
@@ -5745,9 +5745,7 @@
       <c r="AU57" s="2"/>
       <c r="AV57" s="2"/>
       <c r="AW57" s="2"/>
-      <c r="AX57" s="2">
-        <v>10</v>
-      </c>
+      <c r="AX57" s="2"/>
       <c r="AY57" s="1"/>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
@@ -5761,19 +5759,19 @@
       <c r="BI57" s="1"/>
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1">
-        <f>SUM(E57:BJ57)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>1</v>
@@ -5810,14 +5808,14 @@
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
+      <c r="AK58" s="1">
+        <v>15</v>
+      </c>
       <c r="AL58" s="1"/>
       <c r="AM58" s="4"/>
       <c r="AN58" s="4"/>
       <c r="AO58" s="4"/>
-      <c r="AP58" s="4">
-        <v>10</v>
-      </c>
+      <c r="AP58" s="4"/>
       <c r="AQ58" s="4"/>
       <c r="AR58" s="4"/>
       <c r="AS58" s="2"/>
@@ -5825,9 +5823,7 @@
       <c r="AU58" s="2"/>
       <c r="AV58" s="2"/>
       <c r="AW58" s="2"/>
-      <c r="AX58" s="2">
-        <v>10</v>
-      </c>
+      <c r="AX58" s="2"/>
       <c r="AY58" s="1"/>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
@@ -5841,37 +5837,33 @@
       <c r="BI58" s="1"/>
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1">
-        <f>SUM(E58:BJ58)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6">
-        <v>10</v>
-      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
-      <c r="N59" s="6">
-        <v>10</v>
-      </c>
+      <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
@@ -5895,20 +5887,18 @@
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
-      <c r="AL59" s="1"/>
+      <c r="AL59" s="1">
+        <v>5</v>
+      </c>
       <c r="AM59" s="4"/>
       <c r="AN59" s="4"/>
       <c r="AO59" s="4"/>
-      <c r="AP59" s="4">
-        <v>10</v>
-      </c>
+      <c r="AP59" s="4"/>
       <c r="AQ59" s="4"/>
       <c r="AR59" s="4"/>
       <c r="AS59" s="2"/>
       <c r="AT59" s="2"/>
-      <c r="AU59" s="2">
-        <v>10</v>
-      </c>
+      <c r="AU59" s="2"/>
       <c r="AV59" s="2"/>
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
@@ -5925,30 +5915,28 @@
       <c r="BI59" s="1"/>
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1">
-        <f>SUM(E59:BJ59)</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="6">
-        <v>5</v>
-      </c>
+      <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
@@ -5977,7 +5965,9 @@
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
+      <c r="AL60" s="1">
+        <v>15</v>
+      </c>
       <c r="AM60" s="4"/>
       <c r="AN60" s="4"/>
       <c r="AO60" s="4"/>
@@ -6003,32 +5993,32 @@
       <c r="BI60" s="1"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1">
-        <f>SUM(E60:BJ60)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="G61" s="6">
+        <v>10</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="6">
-        <v>5</v>
-      </c>
+      <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -6041,9 +6031,7 @@
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
-      <c r="X61" s="6">
-        <v>5</v>
-      </c>
+      <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
@@ -6057,16 +6045,22 @@
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
+      <c r="AL61" s="1">
+        <v>25</v>
+      </c>
       <c r="AM61" s="4"/>
       <c r="AN61" s="4"/>
       <c r="AO61" s="4"/>
-      <c r="AP61" s="4"/>
+      <c r="AP61" s="4">
+        <v>10</v>
+      </c>
       <c r="AQ61" s="4"/>
       <c r="AR61" s="4"/>
       <c r="AS61" s="2"/>
       <c r="AT61" s="2"/>
-      <c r="AU61" s="2"/>
+      <c r="AU61" s="2">
+        <v>10</v>
+      </c>
       <c r="AV61" s="2"/>
       <c r="AW61" s="2"/>
       <c r="AX61" s="2"/>
@@ -6083,22 +6077,22 @@
       <c r="BI61" s="1"/>
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1">
-        <f>SUM(E61:BJ61)</f>
-        <v>10</v>
+        <f t="shared" ref="BK61:BK91" si="2">SUM(E61:BJ61)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -6110,9 +6104,13 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
+      <c r="O62" s="6">
+        <v>5</v>
+      </c>
       <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
+      <c r="Q62" s="6">
+        <v>5</v>
+      </c>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
@@ -6132,9 +6130,7 @@
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
-      <c r="AK62" s="1">
-        <v>5</v>
-      </c>
+      <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
       <c r="AM62" s="4"/>
       <c r="AN62" s="4"/>
@@ -6161,19 +6157,19 @@
       <c r="BI62" s="1"/>
       <c r="BJ62" s="1"/>
       <c r="BK62" s="1">
-        <f>SUM(E62:BJ62)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>1</v>
@@ -6187,7 +6183,9 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
+      <c r="N63" s="6">
+        <v>5</v>
+      </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -6197,7 +6195,9 @@
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
+      <c r="X63" s="6">
+        <v>5</v>
+      </c>
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
@@ -6210,9 +6210,7 @@
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
-      <c r="AK63" s="1">
-        <v>15</v>
-      </c>
+      <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
       <c r="AM63" s="4"/>
       <c r="AN63" s="4"/>
@@ -6239,25 +6237,27 @@
       <c r="BI63" s="1"/>
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1">
-        <f>SUM(E63:BJ63)</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="6">
+        <v>6</v>
+      </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -6265,7 +6265,9 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
+      <c r="N64" s="6">
+        <v>6</v>
+      </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
@@ -6289,19 +6291,21 @@
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
-      <c r="AL64" s="1">
-        <v>5</v>
-      </c>
+      <c r="AL64" s="1"/>
       <c r="AM64" s="4"/>
       <c r="AN64" s="4"/>
       <c r="AO64" s="4"/>
-      <c r="AP64" s="4"/>
+      <c r="AP64" s="4">
+        <v>10</v>
+      </c>
       <c r="AQ64" s="4"/>
       <c r="AR64" s="4"/>
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
       <c r="AU64" s="2"/>
-      <c r="AV64" s="2"/>
+      <c r="AV64" s="2">
+        <v>10</v>
+      </c>
       <c r="AW64" s="2"/>
       <c r="AX64" s="2"/>
       <c r="AY64" s="1"/>
@@ -6317,28 +6321,32 @@
       <c r="BI64" s="1"/>
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1">
-        <f>SUM(E64:BJ64)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="H65" s="6">
+        <v>6</v>
+      </c>
+      <c r="I65" s="6">
+        <v>6</v>
+      </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -6367,17 +6375,19 @@
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
-      <c r="AL65" s="1">
-        <v>15</v>
-      </c>
+      <c r="AL65" s="1"/>
       <c r="AM65" s="4"/>
       <c r="AN65" s="4"/>
       <c r="AO65" s="4"/>
-      <c r="AP65" s="4"/>
+      <c r="AP65" s="4">
+        <v>10</v>
+      </c>
       <c r="AQ65" s="4"/>
       <c r="AR65" s="4"/>
       <c r="AS65" s="2"/>
-      <c r="AT65" s="2"/>
+      <c r="AT65" s="2">
+        <v>10</v>
+      </c>
       <c r="AU65" s="2"/>
       <c r="AV65" s="2"/>
       <c r="AW65" s="2"/>
@@ -6395,34 +6405,36 @@
       <c r="BI65" s="1"/>
       <c r="BJ65" s="1"/>
       <c r="BK65" s="1">
-        <f>SUM(E65:BJ65)</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6">
-        <v>10</v>
-      </c>
+      <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
+      <c r="L66" s="6">
+        <v>6</v>
+      </c>
+      <c r="M66" s="6">
+        <v>6</v>
+      </c>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
@@ -6447,9 +6459,7 @@
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
-      <c r="AL66" s="1">
-        <v>25</v>
-      </c>
+      <c r="AL66" s="1"/>
       <c r="AM66" s="4"/>
       <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
@@ -6460,12 +6470,12 @@
       <c r="AR66" s="4"/>
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
-      <c r="AU66" s="2">
-        <v>10</v>
-      </c>
+      <c r="AU66" s="2"/>
       <c r="AV66" s="2"/>
       <c r="AW66" s="2"/>
-      <c r="AX66" s="2"/>
+      <c r="AX66" s="2">
+        <v>10</v>
+      </c>
       <c r="AY66" s="1"/>
       <c r="AZ66" s="1"/>
       <c r="BA66" s="1"/>
@@ -6479,19 +6489,19 @@
       <c r="BI66" s="1"/>
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1">
-        <f>SUM(E66:BJ66)</f>
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1</v>
@@ -6506,9 +6516,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="6">
-        <v>5</v>
-      </c>
+      <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6">
         <v>5</v>
@@ -6519,7 +6527,9 @@
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
+      <c r="X67" s="6">
+        <v>5</v>
+      </c>
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
@@ -6559,19 +6569,19 @@
       <c r="BI67" s="1"/>
       <c r="BJ67" s="1"/>
       <c r="BK67" s="1">
-        <f>SUM(E67:BJ67)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>1</v>
@@ -6585,12 +6595,12 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="6">
-        <v>5</v>
-      </c>
+      <c r="N68" s="6"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
+      <c r="Q68" s="6">
+        <v>5</v>
+      </c>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
@@ -6639,27 +6649,25 @@
       <c r="BI68" s="1"/>
       <c r="BJ68" s="1"/>
       <c r="BK68" s="1">
-        <f>SUM(E68:BJ68)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E69" s="6"/>
-      <c r="F69" s="6">
-        <v>6</v>
-      </c>
+      <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -6667,14 +6675,14 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
-      <c r="N69" s="6">
-        <v>6</v>
-      </c>
+      <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
+      <c r="S69" s="6">
+        <v>20</v>
+      </c>
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
@@ -6682,7 +6690,9 @@
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
-      <c r="AA69" s="6"/>
+      <c r="AA69" s="6">
+        <v>25</v>
+      </c>
       <c r="AB69" s="6"/>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
@@ -6697,17 +6707,13 @@
       <c r="AM69" s="4"/>
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
-      <c r="AP69" s="4">
-        <v>10</v>
-      </c>
+      <c r="AP69" s="4"/>
       <c r="AQ69" s="4"/>
       <c r="AR69" s="4"/>
       <c r="AS69" s="2"/>
       <c r="AT69" s="2"/>
       <c r="AU69" s="2"/>
-      <c r="AV69" s="2">
-        <v>10</v>
-      </c>
+      <c r="AV69" s="2"/>
       <c r="AW69" s="2"/>
       <c r="AX69" s="2"/>
       <c r="AY69" s="1"/>
@@ -6723,32 +6729,28 @@
       <c r="BI69" s="1"/>
       <c r="BJ69" s="1"/>
       <c r="BK69" s="1">
-        <f>SUM(E69:BJ69)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="6">
-        <v>6</v>
-      </c>
-      <c r="I70" s="6">
-        <v>6</v>
-      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
@@ -6760,7 +6762,9 @@
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
+      <c r="U70" s="6">
+        <v>20</v>
+      </c>
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
@@ -6781,15 +6785,11 @@
       <c r="AM70" s="4"/>
       <c r="AN70" s="4"/>
       <c r="AO70" s="4"/>
-      <c r="AP70" s="4">
-        <v>10</v>
-      </c>
+      <c r="AP70" s="4"/>
       <c r="AQ70" s="4"/>
       <c r="AR70" s="4"/>
       <c r="AS70" s="2"/>
-      <c r="AT70" s="2">
-        <v>10</v>
-      </c>
+      <c r="AT70" s="2"/>
       <c r="AU70" s="2"/>
       <c r="AV70" s="2"/>
       <c r="AW70" s="2"/>
@@ -6798,7 +6798,9 @@
       <c r="AZ70" s="1"/>
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
-      <c r="BC70" s="1"/>
+      <c r="BC70" s="1">
+        <v>10</v>
+      </c>
       <c r="BD70" s="1"/>
       <c r="BE70" s="1"/>
       <c r="BF70" s="1"/>
@@ -6807,26 +6809,24 @@
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
       <c r="BK70" s="1">
-        <f>SUM(E70:BJ70)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" s="6">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -6864,19 +6864,29 @@
       <c r="AN71" s="4"/>
       <c r="AO71" s="4"/>
       <c r="AP71" s="4"/>
-      <c r="AQ71" s="4"/>
+      <c r="AQ71" s="4">
+        <v>20</v>
+      </c>
       <c r="AR71" s="4"/>
-      <c r="AS71" s="2"/>
-      <c r="AT71" s="2"/>
+      <c r="AS71" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT71" s="2">
+        <v>20</v>
+      </c>
       <c r="AU71" s="2"/>
-      <c r="AV71" s="2"/>
+      <c r="AV71" s="2">
+        <v>10</v>
+      </c>
       <c r="AW71" s="2"/>
       <c r="AX71" s="2"/>
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1"/>
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
+      <c r="BC71" s="1">
+        <v>20</v>
+      </c>
       <c r="BD71" s="1"/>
       <c r="BE71" s="1"/>
       <c r="BF71" s="1"/>
@@ -6885,36 +6895,36 @@
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1">
-        <f>SUM(E71:BJ71)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="G72" s="6">
+        <v>15</v>
+      </c>
+      <c r="H72" s="6">
+        <v>15</v>
+      </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="6">
-        <v>6</v>
-      </c>
-      <c r="M72" s="6">
-        <v>6</v>
-      </c>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -6943,18 +6953,18 @@
       <c r="AM72" s="4"/>
       <c r="AN72" s="4"/>
       <c r="AO72" s="4"/>
-      <c r="AP72" s="4">
-        <v>10</v>
-      </c>
+      <c r="AP72" s="4"/>
       <c r="AQ72" s="4"/>
       <c r="AR72" s="4"/>
       <c r="AS72" s="2"/>
       <c r="AT72" s="2"/>
       <c r="AU72" s="2"/>
-      <c r="AV72" s="2"/>
+      <c r="AV72" s="2">
+        <v>15</v>
+      </c>
       <c r="AW72" s="2"/>
       <c r="AX72" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1"/>
@@ -6969,19 +6979,19 @@
       <c r="BI72" s="1"/>
       <c r="BJ72" s="1"/>
       <c r="BK72" s="1">
-        <f>SUM(E72:BJ72)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1</v>
@@ -6998,18 +7008,16 @@
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
-      <c r="Q73" s="6">
-        <v>5</v>
-      </c>
+      <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
+      <c r="U73" s="6">
+        <v>10</v>
+      </c>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
-      <c r="X73" s="6">
-        <v>5</v>
-      </c>
+      <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
@@ -7028,12 +7036,16 @@
       <c r="AN73" s="4"/>
       <c r="AO73" s="4"/>
       <c r="AP73" s="4"/>
-      <c r="AQ73" s="4"/>
+      <c r="AQ73" s="4">
+        <v>5</v>
+      </c>
       <c r="AR73" s="4"/>
       <c r="AS73" s="2"/>
       <c r="AT73" s="2"/>
       <c r="AU73" s="2"/>
-      <c r="AV73" s="2"/>
+      <c r="AV73" s="2">
+        <v>5</v>
+      </c>
       <c r="AW73" s="2"/>
       <c r="AX73" s="2"/>
       <c r="AY73" s="1"/>
@@ -7049,19 +7061,19 @@
       <c r="BI73" s="1"/>
       <c r="BJ73" s="1"/>
       <c r="BK73" s="1">
-        <f>SUM(E73:BJ73)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>69</v>
+        <v>92</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1</v>
@@ -7078,18 +7090,14 @@
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
-      <c r="Q74" s="6">
-        <v>5</v>
-      </c>
+      <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
-      <c r="X74" s="6">
-        <v>5</v>
-      </c>
+      <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
@@ -7113,9 +7121,13 @@
       <c r="AS74" s="2"/>
       <c r="AT74" s="2"/>
       <c r="AU74" s="2"/>
-      <c r="AV74" s="2"/>
+      <c r="AV74" s="2">
+        <v>10</v>
+      </c>
       <c r="AW74" s="2"/>
-      <c r="AX74" s="2"/>
+      <c r="AX74" s="2">
+        <v>10</v>
+      </c>
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1"/>
@@ -7129,22 +7141,22 @@
       <c r="BI74" s="1"/>
       <c r="BJ74" s="1"/>
       <c r="BK74" s="1">
-        <f>SUM(E74:BJ74)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -7153,16 +7165,18 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
+      <c r="L75" s="6">
+        <v>6</v>
+      </c>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
+      <c r="O75" s="6">
+        <v>6</v>
+      </c>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
-      <c r="S75" s="6">
-        <v>20</v>
-      </c>
+      <c r="S75" s="6"/>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
@@ -7170,9 +7184,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
-      <c r="AA75" s="6">
-        <v>25</v>
-      </c>
+      <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
       <c r="AC75" s="1"/>
       <c r="AD75" s="1"/>
@@ -7188,14 +7200,18 @@
       <c r="AN75" s="4"/>
       <c r="AO75" s="4"/>
       <c r="AP75" s="4"/>
-      <c r="AQ75" s="4"/>
+      <c r="AQ75" s="4">
+        <v>10</v>
+      </c>
       <c r="AR75" s="4"/>
       <c r="AS75" s="2"/>
       <c r="AT75" s="2"/>
       <c r="AU75" s="2"/>
       <c r="AV75" s="2"/>
       <c r="AW75" s="2"/>
-      <c r="AX75" s="2"/>
+      <c r="AX75" s="2">
+        <v>10</v>
+      </c>
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1"/>
@@ -7209,22 +7225,22 @@
       <c r="BI75" s="1"/>
       <c r="BJ75" s="1"/>
       <c r="BK75" s="1">
-        <f>SUM(E75:BJ75)</f>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -7233,18 +7249,20 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
+      <c r="L76" s="6">
+        <v>6</v>
+      </c>
       <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
+      <c r="N76" s="6">
+        <v>6</v>
+      </c>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
-      <c r="U76" s="6">
-        <v>20</v>
-      </c>
+      <c r="U76" s="6"/>
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
@@ -7266,11 +7284,15 @@
       <c r="AN76" s="4"/>
       <c r="AO76" s="4"/>
       <c r="AP76" s="4"/>
-      <c r="AQ76" s="4"/>
+      <c r="AQ76" s="4">
+        <v>10</v>
+      </c>
       <c r="AR76" s="4"/>
       <c r="AS76" s="2"/>
       <c r="AT76" s="2"/>
-      <c r="AU76" s="2"/>
+      <c r="AU76" s="2">
+        <v>10</v>
+      </c>
       <c r="AV76" s="2"/>
       <c r="AW76" s="2"/>
       <c r="AX76" s="2"/>
@@ -7278,9 +7300,7 @@
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
-      <c r="BC76" s="1">
-        <v>10</v>
-      </c>
+      <c r="BC76" s="1"/>
       <c r="BD76" s="1"/>
       <c r="BE76" s="1"/>
       <c r="BF76" s="1"/>
@@ -7289,22 +7309,22 @@
       <c r="BI76" s="1"/>
       <c r="BJ76" s="1"/>
       <c r="BK76" s="1">
-        <f>SUM(E76:BJ76)</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -7316,7 +7336,9 @@
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
+      <c r="O77" s="6">
+        <v>5</v>
+      </c>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
@@ -7344,29 +7366,19 @@
       <c r="AN77" s="4"/>
       <c r="AO77" s="4"/>
       <c r="AP77" s="4"/>
-      <c r="AQ77" s="4">
-        <v>20</v>
-      </c>
+      <c r="AQ77" s="4"/>
       <c r="AR77" s="4"/>
-      <c r="AS77" s="2">
-        <v>20</v>
-      </c>
-      <c r="AT77" s="2">
-        <v>20</v>
-      </c>
+      <c r="AS77" s="2"/>
+      <c r="AT77" s="2"/>
       <c r="AU77" s="2"/>
-      <c r="AV77" s="2">
-        <v>10</v>
-      </c>
+      <c r="AV77" s="2"/>
       <c r="AW77" s="2"/>
       <c r="AX77" s="2"/>
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
-      <c r="BC77" s="1">
-        <v>20</v>
-      </c>
+      <c r="BC77" s="1"/>
       <c r="BD77" s="1"/>
       <c r="BE77" s="1"/>
       <c r="BF77" s="1"/>
@@ -7375,30 +7387,30 @@
       <c r="BI77" s="1"/>
       <c r="BJ77" s="1"/>
       <c r="BK77" s="1">
-        <f>SUM(E77:BJ77)</f>
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H78" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -7440,11 +7452,11 @@
       <c r="AT78" s="2"/>
       <c r="AU78" s="2"/>
       <c r="AV78" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AW78" s="2"/>
       <c r="AX78" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AY78" s="1"/>
       <c r="AZ78" s="1"/>
@@ -7459,22 +7471,22 @@
       <c r="BI78" s="1"/>
       <c r="BJ78" s="1"/>
       <c r="BK78" s="1">
-        <f>SUM(E78:BJ78)</f>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -7492,9 +7504,7 @@
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
-      <c r="U79" s="6">
-        <v>10</v>
-      </c>
+      <c r="U79" s="6"/>
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
@@ -7516,16 +7526,12 @@
       <c r="AN79" s="4"/>
       <c r="AO79" s="4"/>
       <c r="AP79" s="4"/>
-      <c r="AQ79" s="4">
-        <v>5</v>
-      </c>
+      <c r="AQ79" s="4"/>
       <c r="AR79" s="4"/>
       <c r="AS79" s="2"/>
       <c r="AT79" s="2"/>
       <c r="AU79" s="2"/>
-      <c r="AV79" s="2">
-        <v>5</v>
-      </c>
+      <c r="AV79" s="2"/>
       <c r="AW79" s="2"/>
       <c r="AX79" s="2"/>
       <c r="AY79" s="1"/>
@@ -7536,27 +7542,35 @@
       <c r="BD79" s="1"/>
       <c r="BE79" s="1"/>
       <c r="BF79" s="1"/>
-      <c r="BG79" s="1"/>
-      <c r="BH79" s="1"/>
-      <c r="BI79" s="1"/>
-      <c r="BJ79" s="1"/>
+      <c r="BG79" s="1">
+        <v>50</v>
+      </c>
+      <c r="BH79" s="1">
+        <v>50</v>
+      </c>
+      <c r="BI79" s="1">
+        <v>50</v>
+      </c>
+      <c r="BJ79" s="1">
+        <v>50</v>
+      </c>
       <c r="BK79" s="1">
-        <f>SUM(E79:BJ79)</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -7588,8 +7602,12 @@
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
+      <c r="AI80" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ80" s="1">
+        <v>5</v>
+      </c>
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
       <c r="AM80" s="4"/>
@@ -7601,13 +7619,9 @@
       <c r="AS80" s="2"/>
       <c r="AT80" s="2"/>
       <c r="AU80" s="2"/>
-      <c r="AV80" s="2">
-        <v>10</v>
-      </c>
+      <c r="AV80" s="2"/>
       <c r="AW80" s="2"/>
-      <c r="AX80" s="2">
-        <v>10</v>
-      </c>
+      <c r="AX80" s="2"/>
       <c r="AY80" s="1"/>
       <c r="AZ80" s="1"/>
       <c r="BA80" s="1"/>
@@ -7621,22 +7635,22 @@
       <c r="BI80" s="1"/>
       <c r="BJ80" s="1"/>
       <c r="BK80" s="1">
-        <f>SUM(E80:BJ80)</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -7645,14 +7659,10 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="6">
-        <v>6</v>
-      </c>
+      <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
-      <c r="O81" s="6">
-        <v>6</v>
-      </c>
+      <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
@@ -7672,26 +7682,26 @@
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
+      <c r="AI81" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ81" s="1">
+        <v>5</v>
+      </c>
       <c r="AK81" s="1"/>
       <c r="AL81" s="1"/>
       <c r="AM81" s="4"/>
       <c r="AN81" s="4"/>
       <c r="AO81" s="4"/>
       <c r="AP81" s="4"/>
-      <c r="AQ81" s="4">
-        <v>10</v>
-      </c>
+      <c r="AQ81" s="4"/>
       <c r="AR81" s="4"/>
       <c r="AS81" s="2"/>
       <c r="AT81" s="2"/>
       <c r="AU81" s="2"/>
       <c r="AV81" s="2"/>
       <c r="AW81" s="2"/>
-      <c r="AX81" s="2">
-        <v>10</v>
-      </c>
+      <c r="AX81" s="2"/>
       <c r="AY81" s="1"/>
       <c r="AZ81" s="1"/>
       <c r="BA81" s="1"/>
@@ -7705,22 +7715,22 @@
       <c r="BI81" s="1"/>
       <c r="BJ81" s="1"/>
       <c r="BK81" s="1">
-        <f>SUM(E81:BJ81)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -7729,13 +7739,9 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="6">
-        <v>6</v>
-      </c>
+      <c r="L82" s="6"/>
       <c r="M82" s="6"/>
-      <c r="N82" s="6">
-        <v>6</v>
-      </c>
+      <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
@@ -7753,8 +7759,12 @@
       <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
-      <c r="AG82" s="1"/>
+      <c r="AF82" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG82" s="1">
+        <v>5</v>
+      </c>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
@@ -7764,15 +7774,11 @@
       <c r="AN82" s="4"/>
       <c r="AO82" s="4"/>
       <c r="AP82" s="4"/>
-      <c r="AQ82" s="4">
-        <v>10</v>
-      </c>
+      <c r="AQ82" s="4"/>
       <c r="AR82" s="4"/>
       <c r="AS82" s="2"/>
       <c r="AT82" s="2"/>
-      <c r="AU82" s="2">
-        <v>10</v>
-      </c>
+      <c r="AU82" s="2"/>
       <c r="AV82" s="2"/>
       <c r="AW82" s="2"/>
       <c r="AX82" s="2"/>
@@ -7789,19 +7795,19 @@
       <c r="BI82" s="1"/>
       <c r="BJ82" s="1"/>
       <c r="BK82" s="1">
-        <f>SUM(E82:BJ82)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>1</v>
@@ -7816,9 +7822,7 @@
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
-      <c r="O83" s="6">
-        <v>5</v>
-      </c>
+      <c r="O83" s="6"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
@@ -7833,10 +7837,16 @@
       <c r="AA83" s="6"/>
       <c r="AB83" s="6"/>
       <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
+      <c r="AD83" s="1">
+        <v>5</v>
+      </c>
       <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
+      <c r="AF83" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG83" s="1">
+        <v>5</v>
+      </c>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
@@ -7867,31 +7877,27 @@
       <c r="BI83" s="1"/>
       <c r="BJ83" s="1"/>
       <c r="BK83" s="1">
-        <f>SUM(E83:BJ83)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6">
-        <v>5</v>
-      </c>
-      <c r="H84" s="6">
-        <v>5</v>
-      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -7902,7 +7908,9 @@
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
+      <c r="S84" s="6">
+        <v>4</v>
+      </c>
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
@@ -7921,7 +7929,9 @@
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
       <c r="AK84" s="1"/>
-      <c r="AL84" s="1"/>
+      <c r="AL84" s="1">
+        <v>5</v>
+      </c>
       <c r="AM84" s="4"/>
       <c r="AN84" s="4"/>
       <c r="AO84" s="4"/>
@@ -7931,13 +7941,9 @@
       <c r="AS84" s="2"/>
       <c r="AT84" s="2"/>
       <c r="AU84" s="2"/>
-      <c r="AV84" s="2">
-        <v>5</v>
-      </c>
+      <c r="AV84" s="2"/>
       <c r="AW84" s="2"/>
-      <c r="AX84" s="2">
-        <v>5</v>
-      </c>
+      <c r="AX84" s="2"/>
       <c r="AY84" s="1"/>
       <c r="AZ84" s="1"/>
       <c r="BA84" s="1"/>
@@ -7951,22 +7957,22 @@
       <c r="BI84" s="1"/>
       <c r="BJ84" s="1"/>
       <c r="BK84" s="1">
-        <f>SUM(E84:BJ84)</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -7982,7 +7988,9 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
+      <c r="S85" s="6">
+        <v>4</v>
+      </c>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
@@ -8000,7 +8008,9 @@
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
+      <c r="AK85" s="1">
+        <v>5</v>
+      </c>
       <c r="AL85" s="1"/>
       <c r="AM85" s="4"/>
       <c r="AN85" s="4"/>
@@ -8022,42 +8032,40 @@
       <c r="BD85" s="1"/>
       <c r="BE85" s="1"/>
       <c r="BF85" s="1"/>
-      <c r="BG85" s="1">
-        <v>50</v>
-      </c>
-      <c r="BH85" s="1">
-        <v>50</v>
-      </c>
-      <c r="BI85" s="1">
-        <v>50</v>
-      </c>
-      <c r="BJ85" s="1">
-        <v>50</v>
-      </c>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
       <c r="BK85" s="1">
-        <f>SUM(E85:BJ85)</f>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E86" s="6"/>
+      <c r="E86" s="6">
+        <v>10</v>
+      </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
+      <c r="I86" s="6">
+        <v>10</v>
+      </c>
+      <c r="J86" s="6">
+        <v>10</v>
+      </c>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -8082,12 +8090,8 @@
       <c r="AF86" s="1"/>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
-      <c r="AI86" s="1">
-        <v>5</v>
-      </c>
-      <c r="AJ86" s="1">
-        <v>5</v>
-      </c>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
       <c r="AK86" s="1"/>
       <c r="AL86" s="1"/>
       <c r="AM86" s="4"/>
@@ -8115,33 +8119,39 @@
       <c r="BI86" s="1"/>
       <c r="BJ86" s="1"/>
       <c r="BK86" s="1">
-        <f>SUM(E86:BJ86)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="6">
+        <v>20</v>
+      </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+      <c r="K87" s="6">
+        <v>20</v>
+      </c>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
+      <c r="N87" s="6">
+        <v>20</v>
+      </c>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
@@ -8162,12 +8172,8 @@
       <c r="AF87" s="1"/>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
-      <c r="AI87" s="1">
-        <v>5</v>
-      </c>
-      <c r="AJ87" s="1">
-        <v>5</v>
-      </c>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
       <c r="AK87" s="1"/>
       <c r="AL87" s="1"/>
       <c r="AM87" s="4"/>
@@ -8195,22 +8201,22 @@
       <c r="BI87" s="1"/>
       <c r="BJ87" s="1"/>
       <c r="BK87" s="1">
-        <f>SUM(E87:BJ87)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -8239,12 +8245,8 @@
       <c r="AC88" s="1"/>
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
-      <c r="AF88" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG88" s="1">
-        <v>5</v>
-      </c>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
@@ -8259,9 +8261,13 @@
       <c r="AS88" s="2"/>
       <c r="AT88" s="2"/>
       <c r="AU88" s="2"/>
-      <c r="AV88" s="2"/>
+      <c r="AV88" s="2">
+        <v>10</v>
+      </c>
       <c r="AW88" s="2"/>
-      <c r="AX88" s="2"/>
+      <c r="AX88" s="2">
+        <v>10</v>
+      </c>
       <c r="AY88" s="1"/>
       <c r="AZ88" s="1"/>
       <c r="BA88" s="1"/>
@@ -8275,19 +8281,19 @@
       <c r="BI88" s="1"/>
       <c r="BJ88" s="1"/>
       <c r="BK88" s="1">
-        <f>SUM(E88:BJ88)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>1</v>
@@ -8299,10 +8305,14 @@
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
+      <c r="L89" s="6">
+        <v>15</v>
+      </c>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
+      <c r="O89" s="6">
+        <v>15</v>
+      </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
@@ -8317,16 +8327,10 @@
       <c r="AA89" s="6"/>
       <c r="AB89" s="6"/>
       <c r="AC89" s="1"/>
-      <c r="AD89" s="1">
-        <v>5</v>
-      </c>
+      <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
-      <c r="AF89" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG89" s="1">
-        <v>5</v>
-      </c>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
@@ -8341,9 +8345,13 @@
       <c r="AS89" s="2"/>
       <c r="AT89" s="2"/>
       <c r="AU89" s="2"/>
-      <c r="AV89" s="2"/>
+      <c r="AV89" s="2">
+        <v>15</v>
+      </c>
       <c r="AW89" s="2"/>
-      <c r="AX89" s="2"/>
+      <c r="AX89" s="2">
+        <v>15</v>
+      </c>
       <c r="AY89" s="1"/>
       <c r="AZ89" s="1"/>
       <c r="BA89" s="1"/>
@@ -8357,22 +8365,22 @@
       <c r="BI89" s="1"/>
       <c r="BJ89" s="1"/>
       <c r="BK89" s="1">
-        <f>SUM(E89:BJ89)</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -8388,9 +8396,7 @@
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
-      <c r="S90" s="6">
-        <v>4</v>
-      </c>
+      <c r="S90" s="6"/>
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
@@ -8409,9 +8415,7 @@
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
       <c r="AK90" s="1"/>
-      <c r="AL90" s="1">
-        <v>5</v>
-      </c>
+      <c r="AL90" s="1"/>
       <c r="AM90" s="4"/>
       <c r="AN90" s="4"/>
       <c r="AO90" s="4"/>
@@ -8421,9 +8425,13 @@
       <c r="AS90" s="2"/>
       <c r="AT90" s="2"/>
       <c r="AU90" s="2"/>
-      <c r="AV90" s="2"/>
+      <c r="AV90" s="2">
+        <v>10</v>
+      </c>
       <c r="AW90" s="2"/>
-      <c r="AX90" s="2"/>
+      <c r="AX90" s="2">
+        <v>10</v>
+      </c>
       <c r="AY90" s="1"/>
       <c r="AZ90" s="1"/>
       <c r="BA90" s="1"/>
@@ -8437,22 +8445,22 @@
       <c r="BI90" s="1"/>
       <c r="BJ90" s="1"/>
       <c r="BK90" s="1">
-        <f>SUM(E90:BJ90)</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -8468,9 +8476,7 @@
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
-      <c r="S91" s="6">
-        <v>4</v>
-      </c>
+      <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
@@ -8480,7 +8486,9 @@
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="6"/>
-      <c r="AC91" s="1"/>
+      <c r="AC91" s="1">
+        <v>10</v>
+      </c>
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
@@ -8488,9 +8496,7 @@
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
-      <c r="AK91" s="1">
-        <v>5</v>
-      </c>
+      <c r="AK91" s="1"/>
       <c r="AL91" s="1"/>
       <c r="AM91" s="4"/>
       <c r="AN91" s="4"/>
@@ -8517,35 +8523,29 @@
       <c r="BI91" s="1"/>
       <c r="BJ91" s="1"/>
       <c r="BK91" s="1">
-        <f>SUM(E91:BJ91)</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="6">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
-      <c r="I92" s="6">
-        <v>10</v>
-      </c>
-      <c r="J92" s="6">
-        <v>10</v>
-      </c>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
@@ -8564,7 +8564,9 @@
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="6"/>
-      <c r="AC92" s="1"/>
+      <c r="AC92" s="1">
+        <v>50</v>
+      </c>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
@@ -8599,39 +8601,33 @@
       <c r="BI92" s="1"/>
       <c r="BJ92" s="1"/>
       <c r="BK92" s="1">
-        <f>SUM(E92:BJ92)</f>
-        <v>30</v>
+        <f t="shared" ref="BK92:BK123" si="3">SUM(E92:BJ92)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E93" s="6"/>
-      <c r="F93" s="6">
-        <v>20</v>
-      </c>
+      <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="K93" s="6">
-        <v>20</v>
-      </c>
+      <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
-      <c r="N93" s="6">
-        <v>20</v>
-      </c>
+      <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
@@ -8646,7 +8642,9 @@
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="6"/>
-      <c r="AC93" s="1"/>
+      <c r="AC93" s="1">
+        <v>200</v>
+      </c>
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
@@ -8681,19 +8679,19 @@
       <c r="BI93" s="1"/>
       <c r="BJ93" s="1"/>
       <c r="BK93" s="1">
-        <f>SUM(E93:BJ93)</f>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
@@ -8704,7 +8702,9 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
+      <c r="K94" s="6">
+        <v>5</v>
+      </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
@@ -8741,13 +8741,9 @@
       <c r="AS94" s="2"/>
       <c r="AT94" s="2"/>
       <c r="AU94" s="2"/>
-      <c r="AV94" s="2">
-        <v>10</v>
-      </c>
+      <c r="AV94" s="2"/>
       <c r="AW94" s="2"/>
-      <c r="AX94" s="2">
-        <v>10</v>
-      </c>
+      <c r="AX94" s="2"/>
       <c r="AY94" s="1"/>
       <c r="AZ94" s="1"/>
       <c r="BA94" s="1"/>
@@ -8761,38 +8757,38 @@
       <c r="BI94" s="1"/>
       <c r="BJ94" s="1"/>
       <c r="BK94" s="1">
-        <f>SUM(E94:BJ94)</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
+      <c r="H95" s="6">
+        <v>6</v>
+      </c>
+      <c r="I95" s="6">
+        <v>6</v>
+      </c>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
-      <c r="L95" s="6">
-        <v>15</v>
-      </c>
+      <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
-      <c r="O95" s="6">
-        <v>15</v>
-      </c>
+      <c r="O95" s="6"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
@@ -8821,17 +8817,17 @@
       <c r="AO95" s="4"/>
       <c r="AP95" s="4"/>
       <c r="AQ95" s="4"/>
-      <c r="AR95" s="4"/>
-      <c r="AS95" s="2"/>
+      <c r="AR95" s="4">
+        <v>8</v>
+      </c>
+      <c r="AS95" s="2">
+        <v>8</v>
+      </c>
       <c r="AT95" s="2"/>
       <c r="AU95" s="2"/>
-      <c r="AV95" s="2">
-        <v>15</v>
-      </c>
+      <c r="AV95" s="2"/>
       <c r="AW95" s="2"/>
-      <c r="AX95" s="2">
-        <v>15</v>
-      </c>
+      <c r="AX95" s="2"/>
       <c r="AY95" s="1"/>
       <c r="AZ95" s="1"/>
       <c r="BA95" s="1"/>
@@ -8845,22 +8841,22 @@
       <c r="BI95" s="1"/>
       <c r="BJ95" s="1"/>
       <c r="BK95" s="1">
-        <f>SUM(E95:BJ95)</f>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -8905,753 +8901,277 @@
       <c r="AS96" s="2"/>
       <c r="AT96" s="2"/>
       <c r="AU96" s="2"/>
-      <c r="AV96" s="2">
-        <v>10</v>
-      </c>
+      <c r="AV96" s="2"/>
       <c r="AW96" s="2"/>
-      <c r="AX96" s="2">
-        <v>10</v>
-      </c>
+      <c r="AX96" s="2"/>
       <c r="AY96" s="1"/>
       <c r="AZ96" s="1"/>
       <c r="BA96" s="1"/>
       <c r="BB96" s="1"/>
       <c r="BC96" s="1"/>
       <c r="BD96" s="1"/>
-      <c r="BE96" s="1"/>
-      <c r="BF96" s="1"/>
+      <c r="BE96" s="1">
+        <v>50</v>
+      </c>
+      <c r="BF96" s="1">
+        <v>50</v>
+      </c>
       <c r="BG96" s="1"/>
       <c r="BH96" s="1"/>
-      <c r="BI96" s="1"/>
-      <c r="BJ96" s="1"/>
+      <c r="BI96" s="1">
+        <v>50</v>
+      </c>
+      <c r="BJ96" s="1">
+        <v>50</v>
+      </c>
       <c r="BK96" s="1">
-        <f>SUM(E96:BJ96)</f>
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63" x14ac:dyDescent="0.15">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="6">
+        <f t="shared" ref="E97:AJ97" si="4">SUM(E2:E96)</f>
+        <v>47</v>
+      </c>
+      <c r="F97" s="6">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="G97" s="6">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="H97" s="6">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="I97" s="6">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="J97" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="K97" s="6">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="L97" s="6">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="M97" s="6">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="N97" s="6">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="O97" s="6">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="P97" s="6">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q97" s="6">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="R97" s="6">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="S97" s="6">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="T97" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U97" s="6">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="V97" s="6">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="W97" s="6">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="X97" s="6">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A97" s="1">
-        <v>97</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
-      <c r="Z97" s="6"/>
-      <c r="AA97" s="6"/>
-      <c r="AB97" s="6"/>
+      <c r="Y97" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z97" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AA97" s="6">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AB97" s="6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="AC97" s="1">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="AD97" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="1"/>
-      <c r="AF97" s="1"/>
-      <c r="AG97" s="1"/>
-      <c r="AH97" s="1"/>
-      <c r="AI97" s="1"/>
-      <c r="AJ97" s="1"/>
-      <c r="AK97" s="1"/>
-      <c r="AL97" s="1"/>
-      <c r="AM97" s="4"/>
-      <c r="AN97" s="4"/>
-      <c r="AO97" s="4"/>
-      <c r="AP97" s="4"/>
-      <c r="AQ97" s="4"/>
-      <c r="AR97" s="4"/>
-      <c r="AS97" s="2"/>
-      <c r="AT97" s="2"/>
-      <c r="AU97" s="2"/>
-      <c r="AV97" s="2"/>
-      <c r="AW97" s="2"/>
-      <c r="AX97" s="2"/>
-      <c r="AY97" s="1"/>
-      <c r="AZ97" s="1"/>
-      <c r="BA97" s="1"/>
-      <c r="BB97" s="1"/>
-      <c r="BC97" s="1"/>
-      <c r="BD97" s="1"/>
-      <c r="BE97" s="1"/>
-      <c r="BF97" s="1"/>
-      <c r="BG97" s="1"/>
-      <c r="BH97" s="1"/>
-      <c r="BI97" s="1"/>
-      <c r="BJ97" s="1"/>
-      <c r="BK97" s="1">
-        <f>SUM(E97:BJ97)</f>
+      <c r="AE97" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AF97" s="1">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AG97" s="1">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AH97" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AI97" s="1">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AJ97" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A98" s="1">
-        <v>98</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
-      <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-      <c r="X98" s="6"/>
-      <c r="Y98" s="6"/>
-      <c r="Z98" s="6"/>
-      <c r="AA98" s="6"/>
-      <c r="AB98" s="6"/>
-      <c r="AC98" s="1">
+      <c r="AK97" s="1">
+        <f>SUM(AK2:AK96)</f>
+        <v>25</v>
+      </c>
+      <c r="AL97" s="1">
+        <f>SUM(AL2:AL96)</f>
         <v>50</v>
       </c>
-      <c r="AD98" s="1"/>
-      <c r="AE98" s="1"/>
-      <c r="AF98" s="1"/>
-      <c r="AG98" s="1"/>
-      <c r="AH98" s="1"/>
-      <c r="AI98" s="1"/>
-      <c r="AJ98" s="1"/>
-      <c r="AK98" s="1"/>
-      <c r="AL98" s="1"/>
-      <c r="AM98" s="4"/>
-      <c r="AN98" s="4"/>
-      <c r="AO98" s="4"/>
-      <c r="AP98" s="4"/>
-      <c r="AQ98" s="4"/>
-      <c r="AR98" s="4"/>
-      <c r="AS98" s="2"/>
-      <c r="AT98" s="2"/>
-      <c r="AU98" s="2"/>
-      <c r="AV98" s="2"/>
-      <c r="AW98" s="2"/>
-      <c r="AX98" s="2"/>
-      <c r="AY98" s="1"/>
-      <c r="AZ98" s="1"/>
-      <c r="BA98" s="1"/>
-      <c r="BB98" s="1"/>
-      <c r="BC98" s="1"/>
-      <c r="BD98" s="1"/>
-      <c r="BE98" s="1"/>
-      <c r="BF98" s="1"/>
-      <c r="BG98" s="1"/>
-      <c r="BH98" s="1"/>
-      <c r="BI98" s="1"/>
-      <c r="BJ98" s="1"/>
-      <c r="BK98" s="1">
-        <f>SUM(E98:BJ98)</f>
+      <c r="AM97" s="4">
+        <f>SUM(AM2:AM96)</f>
+        <v>60</v>
+      </c>
+      <c r="AN97" s="4">
+        <f>SUM(AN2:AN96)</f>
+        <v>45</v>
+      </c>
+      <c r="AO97" s="4">
+        <f>SUM(AO2:AO96)</f>
+        <v>65</v>
+      </c>
+      <c r="AP97" s="4">
+        <f>SUM(AP2:AP96)</f>
+        <v>85</v>
+      </c>
+      <c r="AQ97" s="4">
+        <f>SUM(AQ2:AQ96)</f>
+        <v>45</v>
+      </c>
+      <c r="AR97" s="4">
+        <f>SUM(AR2:AR96)</f>
+        <v>8</v>
+      </c>
+      <c r="AS97" s="2">
+        <f>SUM(AS2:AS96)</f>
+        <v>53</v>
+      </c>
+      <c r="AT97" s="2">
+        <f>SUM(AT2:AT96)</f>
+        <v>65</v>
+      </c>
+      <c r="AU97" s="2">
+        <f>SUM(AU2:AU96)</f>
+        <v>65</v>
+      </c>
+      <c r="AV97" s="2">
+        <f>SUM(AV2:AV96)</f>
+        <v>190</v>
+      </c>
+      <c r="AW97" s="2">
+        <f>SUM(AW2:AW96)</f>
+        <v>10</v>
+      </c>
+      <c r="AX97" s="2">
+        <f>SUM(AX2:AX96)</f>
+        <v>120</v>
+      </c>
+      <c r="AY97" s="1">
+        <f>SUM(AY2:AY96)</f>
+        <v>60</v>
+      </c>
+      <c r="AZ97" s="1">
+        <f>SUM(AZ2:AZ96)</f>
+        <v>60</v>
+      </c>
+      <c r="BA97" s="1">
+        <f>SUM(BA2:BA96)</f>
+        <v>60</v>
+      </c>
+      <c r="BB97" s="1">
+        <f>SUM(BB2:BB96)</f>
+        <v>60</v>
+      </c>
+      <c r="BC97" s="1">
+        <f>SUM(BC2:BC96)</f>
+        <v>85</v>
+      </c>
+      <c r="BD97" s="1">
+        <f>SUM(BD2:BD96)</f>
+        <v>55</v>
+      </c>
+      <c r="BE97" s="1">
+        <f>SUM(BE2:BE96)</f>
+        <v>100</v>
+      </c>
+      <c r="BF97" s="1">
+        <f>SUM(BF2:BF96)</f>
+        <v>100</v>
+      </c>
+      <c r="BG97" s="1">
+        <f>SUM(BG2:BG96)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="99" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A99" s="1">
-        <v>99</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
-      <c r="V99" s="6"/>
-      <c r="W99" s="6"/>
-      <c r="X99" s="6"/>
-      <c r="Y99" s="6"/>
-      <c r="Z99" s="6"/>
-      <c r="AA99" s="6"/>
-      <c r="AB99" s="6"/>
-      <c r="AC99" s="1">
-        <v>200</v>
-      </c>
-      <c r="AD99" s="1"/>
-      <c r="AE99" s="1"/>
-      <c r="AF99" s="1"/>
-      <c r="AG99" s="1"/>
-      <c r="AH99" s="1"/>
-      <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-      <c r="AK99" s="1"/>
-      <c r="AL99" s="1"/>
-      <c r="AM99" s="4"/>
-      <c r="AN99" s="4"/>
-      <c r="AO99" s="4"/>
-      <c r="AP99" s="4"/>
-      <c r="AQ99" s="4"/>
-      <c r="AR99" s="4"/>
-      <c r="AS99" s="2"/>
-      <c r="AT99" s="2"/>
-      <c r="AU99" s="2"/>
-      <c r="AV99" s="2"/>
-      <c r="AW99" s="2"/>
-      <c r="AX99" s="2"/>
-      <c r="AY99" s="1"/>
-      <c r="AZ99" s="1"/>
-      <c r="BA99" s="1"/>
-      <c r="BB99" s="1"/>
-      <c r="BC99" s="1"/>
-      <c r="BD99" s="1"/>
-      <c r="BE99" s="1"/>
-      <c r="BF99" s="1"/>
-      <c r="BG99" s="1"/>
-      <c r="BH99" s="1"/>
-      <c r="BI99" s="1"/>
-      <c r="BJ99" s="1"/>
-      <c r="BK99" s="1">
-        <f>SUM(E99:BJ99)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A100" s="1">
-        <v>100</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6">
-        <v>5</v>
-      </c>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
-      <c r="Y100" s="6"/>
-      <c r="Z100" s="6"/>
-      <c r="AA100" s="6"/>
-      <c r="AB100" s="6"/>
-      <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
-      <c r="AE100" s="1"/>
-      <c r="AF100" s="1"/>
-      <c r="AG100" s="1"/>
-      <c r="AH100" s="1"/>
-      <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
-      <c r="AK100" s="1"/>
-      <c r="AL100" s="1"/>
-      <c r="AM100" s="4"/>
-      <c r="AN100" s="4"/>
-      <c r="AO100" s="4"/>
-      <c r="AP100" s="4"/>
-      <c r="AQ100" s="4"/>
-      <c r="AR100" s="4"/>
-      <c r="AS100" s="2"/>
-      <c r="AT100" s="2"/>
-      <c r="AU100" s="2"/>
-      <c r="AV100" s="2"/>
-      <c r="AW100" s="2"/>
-      <c r="AX100" s="2"/>
-      <c r="AY100" s="1"/>
-      <c r="AZ100" s="1"/>
-      <c r="BA100" s="1"/>
-      <c r="BB100" s="1"/>
-      <c r="BC100" s="1"/>
-      <c r="BD100" s="1"/>
-      <c r="BE100" s="1"/>
-      <c r="BF100" s="1"/>
-      <c r="BG100" s="1"/>
-      <c r="BH100" s="1"/>
-      <c r="BI100" s="1"/>
-      <c r="BJ100" s="1"/>
-      <c r="BK100" s="1">
-        <f>SUM(E100:BJ100)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A101" s="1">
-        <v>101</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6">
-        <v>6</v>
-      </c>
-      <c r="I101" s="6">
-        <v>6</v>
-      </c>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
-      <c r="Y101" s="6"/>
-      <c r="Z101" s="6"/>
-      <c r="AA101" s="6"/>
-      <c r="AB101" s="6"/>
-      <c r="AC101" s="1"/>
-      <c r="AD101" s="1"/>
-      <c r="AE101" s="1"/>
-      <c r="AF101" s="1"/>
-      <c r="AG101" s="1"/>
-      <c r="AH101" s="1"/>
-      <c r="AI101" s="1"/>
-      <c r="AJ101" s="1"/>
-      <c r="AK101" s="1"/>
-      <c r="AL101" s="1"/>
-      <c r="AM101" s="4"/>
-      <c r="AN101" s="4"/>
-      <c r="AO101" s="4"/>
-      <c r="AP101" s="4"/>
-      <c r="AQ101" s="4"/>
-      <c r="AR101" s="4">
-        <v>8</v>
-      </c>
-      <c r="AS101" s="2">
-        <v>8</v>
-      </c>
-      <c r="AT101" s="2"/>
-      <c r="AU101" s="2"/>
-      <c r="AV101" s="2"/>
-      <c r="AW101" s="2"/>
-      <c r="AX101" s="2"/>
-      <c r="AY101" s="1"/>
-      <c r="AZ101" s="1"/>
-      <c r="BA101" s="1"/>
-      <c r="BB101" s="1"/>
-      <c r="BC101" s="1"/>
-      <c r="BD101" s="1"/>
-      <c r="BE101" s="1"/>
-      <c r="BF101" s="1"/>
-      <c r="BG101" s="1"/>
-      <c r="BH101" s="1"/>
-      <c r="BI101" s="1"/>
-      <c r="BJ101" s="1"/>
-      <c r="BK101" s="1">
-        <f>SUM(E101:BJ101)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A102" s="1">
-        <v>102</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
-      <c r="V102" s="6"/>
-      <c r="W102" s="6"/>
-      <c r="X102" s="6"/>
-      <c r="Y102" s="6"/>
-      <c r="Z102" s="6"/>
-      <c r="AA102" s="6"/>
-      <c r="AB102" s="6"/>
-      <c r="AC102" s="1"/>
-      <c r="AD102" s="1"/>
-      <c r="AE102" s="1"/>
-      <c r="AF102" s="1"/>
-      <c r="AG102" s="1"/>
-      <c r="AH102" s="1"/>
-      <c r="AI102" s="1"/>
-      <c r="AJ102" s="1"/>
-      <c r="AK102" s="1"/>
-      <c r="AL102" s="1"/>
-      <c r="AM102" s="4"/>
-      <c r="AN102" s="4"/>
-      <c r="AO102" s="4"/>
-      <c r="AP102" s="4"/>
-      <c r="AQ102" s="4"/>
-      <c r="AR102" s="4"/>
-      <c r="AS102" s="2"/>
-      <c r="AT102" s="2"/>
-      <c r="AU102" s="2"/>
-      <c r="AV102" s="2"/>
-      <c r="AW102" s="2"/>
-      <c r="AX102" s="2"/>
-      <c r="AY102" s="1"/>
-      <c r="AZ102" s="1"/>
-      <c r="BA102" s="1"/>
-      <c r="BB102" s="1"/>
-      <c r="BC102" s="1"/>
-      <c r="BD102" s="1"/>
-      <c r="BE102" s="1">
+      <c r="BH97" s="1">
+        <f>SUM(BH2:BH96)</f>
         <v>50</v>
       </c>
-      <c r="BF102" s="1">
-        <v>50</v>
-      </c>
-      <c r="BG102" s="1"/>
-      <c r="BH102" s="1"/>
-      <c r="BI102" s="1">
-        <v>50</v>
-      </c>
-      <c r="BJ102" s="1">
-        <v>50</v>
-      </c>
-      <c r="BK102" s="1">
-        <f>SUM(E102:BJ102)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="6">
-        <f>SUM(E2:E102)</f>
-        <v>52</v>
-      </c>
-      <c r="F103" s="6">
-        <f>SUM(F2:F102)</f>
-        <v>84</v>
-      </c>
-      <c r="G103" s="6">
-        <f>SUM(G2:G102)</f>
-        <v>86</v>
-      </c>
-      <c r="H103" s="6">
-        <f>SUM(H2:H102)</f>
-        <v>91</v>
-      </c>
-      <c r="I103" s="6">
-        <f>SUM(I2:I102)</f>
-        <v>35</v>
-      </c>
-      <c r="J103" s="6">
-        <f>SUM(J2:J102)</f>
-        <v>10</v>
-      </c>
-      <c r="K103" s="6">
-        <f>SUM(K2:K102)</f>
-        <v>38</v>
-      </c>
-      <c r="L103" s="6">
-        <f>SUM(L2:L102)</f>
-        <v>50</v>
-      </c>
-      <c r="M103" s="6">
-        <f>SUM(M2:M102)</f>
-        <v>17</v>
-      </c>
-      <c r="N103" s="6">
-        <f>SUM(N2:N102)</f>
-        <v>47</v>
-      </c>
-      <c r="O103" s="6">
-        <f>SUM(O2:O102)</f>
-        <v>42</v>
-      </c>
-      <c r="P103" s="6">
-        <f>SUM(P2:P102)</f>
-        <v>25</v>
-      </c>
-      <c r="Q103" s="6">
-        <f>SUM(Q2:Q102)</f>
-        <v>15</v>
-      </c>
-      <c r="R103" s="6">
-        <f>SUM(R2:R102)</f>
-        <v>22</v>
-      </c>
-      <c r="S103" s="6">
-        <f>SUM(S2:S102)</f>
-        <v>28</v>
-      </c>
-      <c r="T103" s="6">
-        <f>SUM(T2:T102)</f>
-        <v>10</v>
-      </c>
-      <c r="U103" s="6">
-        <f>SUM(U2:U102)</f>
-        <v>30</v>
-      </c>
-      <c r="V103" s="6">
-        <f>SUM(V2:V102)</f>
-        <v>19</v>
-      </c>
-      <c r="W103" s="6">
-        <f>SUM(W2:W102)</f>
-        <v>15</v>
-      </c>
-      <c r="X103" s="6">
-        <f>SUM(X2:X102)</f>
-        <v>20</v>
-      </c>
-      <c r="Y103" s="6">
-        <f>SUM(Y2:Y102)</f>
-        <v>3</v>
-      </c>
-      <c r="Z103" s="6">
-        <f>SUM(Z2:Z102)</f>
-        <v>10</v>
-      </c>
-      <c r="AA103" s="6">
-        <f>SUM(AA2:AA102)</f>
-        <v>25</v>
-      </c>
-      <c r="AB103" s="6">
-        <f>SUM(AB2:AB102)</f>
-        <v>4</v>
-      </c>
-      <c r="AC103" s="1">
-        <f>SUM(AC2:AC102)</f>
-        <v>278</v>
-      </c>
-      <c r="AD103" s="1">
-        <f>SUM(AD2:AD102)</f>
-        <v>10</v>
-      </c>
-      <c r="AE103" s="1">
-        <f>SUM(AE2:AE102)</f>
-        <v>15</v>
-      </c>
-      <c r="AF103" s="1">
-        <f>SUM(AF2:AF102)</f>
-        <v>25</v>
-      </c>
-      <c r="AG103" s="1">
-        <f>SUM(AG2:AG102)</f>
-        <v>25</v>
-      </c>
-      <c r="AH103" s="1">
-        <f>SUM(AH2:AH102)</f>
-        <v>5</v>
-      </c>
-      <c r="AI103" s="1">
-        <f>SUM(AI2:AI102)</f>
-        <v>20</v>
-      </c>
-      <c r="AJ103" s="1">
-        <f>SUM(AJ2:AJ102)</f>
-        <v>10</v>
-      </c>
-      <c r="AK103" s="1">
-        <f>SUM(AK2:AK102)</f>
-        <v>25</v>
-      </c>
-      <c r="AL103" s="1">
-        <f>SUM(AL2:AL102)</f>
-        <v>50</v>
-      </c>
-      <c r="AM103" s="4">
-        <f>SUM(AM2:AM102)</f>
-        <v>60</v>
-      </c>
-      <c r="AN103" s="4">
-        <f>SUM(AN2:AN102)</f>
-        <v>45</v>
-      </c>
-      <c r="AO103" s="4">
-        <f>SUM(AO2:AO102)</f>
-        <v>65</v>
-      </c>
-      <c r="AP103" s="4">
-        <f>SUM(AP2:AP102)</f>
-        <v>85</v>
-      </c>
-      <c r="AQ103" s="4">
-        <f>SUM(AQ2:AQ102)</f>
-        <v>45</v>
-      </c>
-      <c r="AR103" s="4">
-        <f>SUM(AR2:AR102)</f>
-        <v>8</v>
-      </c>
-      <c r="AS103" s="2">
-        <f>SUM(AS2:AS102)</f>
-        <v>53</v>
-      </c>
-      <c r="AT103" s="2">
-        <f>SUM(AT2:AT102)</f>
-        <v>65</v>
-      </c>
-      <c r="AU103" s="2">
-        <f>SUM(AU2:AU102)</f>
-        <v>65</v>
-      </c>
-      <c r="AV103" s="2">
-        <f>SUM(AV2:AV102)</f>
-        <v>190</v>
-      </c>
-      <c r="AW103" s="2">
-        <f>SUM(AW2:AW102)</f>
-        <v>10</v>
-      </c>
-      <c r="AX103" s="2">
-        <f>SUM(AX2:AX102)</f>
-        <v>120</v>
-      </c>
-      <c r="AY103" s="1">
-        <f>SUM(AY2:AY102)</f>
-        <v>60</v>
-      </c>
-      <c r="AZ103" s="1">
-        <f>SUM(AZ2:AZ102)</f>
-        <v>60</v>
-      </c>
-      <c r="BA103" s="1">
-        <f>SUM(BA2:BA102)</f>
-        <v>60</v>
-      </c>
-      <c r="BB103" s="1">
-        <f>SUM(BB2:BB102)</f>
-        <v>60</v>
-      </c>
-      <c r="BC103" s="1">
-        <f>SUM(BC2:BC102)</f>
-        <v>85</v>
-      </c>
-      <c r="BD103" s="1">
-        <f>SUM(BD2:BD102)</f>
-        <v>55</v>
-      </c>
-      <c r="BE103" s="1">
-        <f>SUM(BE2:BE102)</f>
-        <v>100</v>
-      </c>
-      <c r="BF103" s="1">
-        <f>SUM(BF2:BF102)</f>
-        <v>100</v>
-      </c>
-      <c r="BG103" s="1">
-        <f>SUM(BG2:BG102)</f>
-        <v>50</v>
-      </c>
-      <c r="BH103" s="1">
-        <f>SUM(BH2:BH102)</f>
-        <v>50</v>
-      </c>
-      <c r="BI103" s="1">
-        <f>SUM(BI2:BI102)</f>
+      <c r="BI97" s="1">
+        <f>SUM(BI2:BI96)</f>
         <v>150</v>
       </c>
-      <c r="BJ103" s="1">
-        <f>SUM(BJ2:BJ102)</f>
+      <c r="BJ97" s="1">
+        <f>SUM(BJ2:BJ96)</f>
         <v>150</v>
       </c>
-      <c r="BK103" s="1"/>
+      <c r="BK97" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BK103"/>
+  <autoFilter ref="A1:BK97"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9674,13 +9194,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -9699,7 +9219,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1">
         <v>120</v>
@@ -9710,7 +9230,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <v>85</v>
@@ -9787,7 +9307,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1">
         <v>45</v>
@@ -9809,7 +9329,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>

--- a/bin/妖怪收账.xlsx
+++ b/bin/妖怪收账.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BK$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BJ$97</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -514,10 +514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>呵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,6 +603,10 @@
   </si>
   <si>
     <t>笔支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +743,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,38 +1027,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BJ98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="40" max="44" width="11" style="7" customWidth="1"/>
-    <col min="45" max="47" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="13" style="7" customWidth="1"/>
-    <col min="51" max="56" width="11" bestFit="1" customWidth="1"/>
-    <col min="57" max="62" width="12" customWidth="1"/>
+    <col min="3" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="24" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="43" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="49" width="18.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="50" max="55" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="61" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
@@ -1073,7 +1087,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>31</v>
@@ -1118,46 +1132,46 @@
         <v>75</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB1" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="AB1" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="AC1" s="8" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL1" s="8" t="s">
         <v>79</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="AM1" s="10" t="s">
         <v>5</v>
@@ -1166,76 +1180,73 @@
         <v>35</v>
       </c>
       <c r="AO1" s="10" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AP1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>100</v>
+      <c r="AR1" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT1" s="11" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="AU1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="AV1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AW1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX1" s="11" t="s">
-        <v>69</v>
+      <c r="AX1" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="AY1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD1" s="8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BF1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BG1" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BH1" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BI1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="BJ1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="BK1" s="12" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1275,7 +1286,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
+      <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -1285,7 +1296,7 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
+      <c r="AL2" s="4"/>
       <c r="AM2" s="4">
         <v>10</v>
       </c>
@@ -1293,17 +1304,17 @@
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
+      <c r="AR2" s="2">
+        <v>15</v>
+      </c>
       <c r="AS2" s="2">
         <v>15</v>
       </c>
-      <c r="AT2" s="2">
-        <v>15</v>
-      </c>
+      <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
+      <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
@@ -1315,13 +1326,12 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1">
-        <f t="shared" ref="BK2:BK32" si="0">SUM(E2:BJ2)</f>
+      <c r="BJ2" s="1">
+        <f>SUM(E2:BI2)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1357,10 +1367,10 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="1">
+      <c r="AB3" s="1">
         <v>15</v>
       </c>
+      <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -1369,13 +1379,13 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
+      <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
+      <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
@@ -1383,7 +1393,7 @@
       </c>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
+      <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
@@ -1395,13 +1405,12 @@
       <c r="BG3" s="1"/>
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ3" s="1">
+        <f>SUM(E3:BI3)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1441,7 +1450,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
+      <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -1451,7 +1460,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
+      <c r="AL4" s="4"/>
       <c r="AM4" s="4">
         <v>15</v>
       </c>
@@ -1459,15 +1468,15 @@
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
+      <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
-      <c r="AV4" s="2">
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2">
         <v>15</v>
       </c>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
+      <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
@@ -1479,13 +1488,12 @@
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ4" s="1">
+        <f>SUM(E4:BI4)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1521,7 +1529,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
+      <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -1531,45 +1539,44 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
+      <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
+      <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
+      <c r="AX5" s="1">
+        <v>20</v>
+      </c>
       <c r="AY5" s="1">
         <v>20</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1">
         <v>20</v>
       </c>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
       <c r="BC5" s="1">
         <v>20</v>
       </c>
-      <c r="BD5" s="1">
-        <v>20</v>
-      </c>
+      <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ5" s="1">
+        <f>SUM(E5:BI5)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1605,7 +1612,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
+      <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -1615,7 +1622,7 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
+      <c r="AL6" s="4"/>
       <c r="AM6" s="4">
         <v>10</v>
       </c>
@@ -1623,15 +1630,15 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
+      <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
-      <c r="AV6" s="2">
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2">
         <v>10</v>
       </c>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
+      <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
@@ -1643,13 +1650,12 @@
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
-      <c r="BJ6" s="1"/>
-      <c r="BK6" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ6" s="1">
+        <f>SUM(E6:BI6)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1685,7 +1691,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
+      <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -1695,7 +1701,7 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
+      <c r="AL7" s="4"/>
       <c r="AM7" s="4">
         <v>10</v>
       </c>
@@ -1703,15 +1709,15 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
+      <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
-      <c r="AV7" s="2">
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2">
         <v>10</v>
       </c>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
+      <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
@@ -1723,13 +1729,12 @@
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ7" s="1">
+        <f>SUM(E7:BI7)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1767,7 +1772,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
+      <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -1777,19 +1782,19 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
+      <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
+      <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
@@ -1801,13 +1806,12 @@
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
-      <c r="BK8" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ8" s="1">
+        <f>SUM(E8:BI8)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1847,7 +1851,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
+      <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
@@ -1857,7 +1861,7 @@
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
+      <c r="AL9" s="4"/>
       <c r="AM9" s="4">
         <v>10</v>
       </c>
@@ -1865,15 +1869,15 @@
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
-      <c r="AV9" s="2">
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2">
         <v>10</v>
       </c>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
+      <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
@@ -1885,13 +1889,12 @@
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ9" s="1">
+        <f>SUM(E9:BI9)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1931,7 +1934,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
+      <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -1941,7 +1944,7 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
+      <c r="AL10" s="4"/>
       <c r="AM10" s="4">
         <v>5</v>
       </c>
@@ -1949,15 +1952,15 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="2">
+      <c r="AR10" s="2">
         <v>5</v>
       </c>
+      <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
+      <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
@@ -1969,13 +1972,12 @@
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
-      <c r="BK10" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ10" s="1">
+        <f>SUM(E10:BI10)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2013,7 +2015,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
+      <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -2023,19 +2025,19 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
+      <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
+      <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
@@ -2047,18 +2049,17 @@
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ11" s="1">
+        <f>SUM(E11:BI11)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -2091,7 +2092,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
+      <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -2101,19 +2102,19 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
+      <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
-      <c r="AX12" s="2"/>
+      <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
@@ -2125,13 +2126,12 @@
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ12" s="1">
+        <f>SUM(E12:BI12)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2166,12 +2166,12 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6">
+      <c r="Y13" s="6">
         <v>10</v>
       </c>
+      <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
+      <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -2181,19 +2181,19 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
+      <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
+      <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
+      <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
@@ -2205,13 +2205,12 @@
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ13" s="1">
+        <f>SUM(E13:BI13)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2251,7 +2250,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+      <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -2261,19 +2260,19 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
+      <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
+      <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
+      <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
@@ -2285,13 +2284,12 @@
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ14" s="1">
+        <f>SUM(E14:BI14)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2331,7 +2329,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
+      <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -2341,7 +2339,7 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
+      <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
       <c r="AN15" s="4">
         <v>15</v>
@@ -2349,15 +2347,15 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
+      <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
-      <c r="AV15" s="2">
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2">
         <v>15</v>
       </c>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
+      <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
@@ -2369,13 +2367,12 @@
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ15" s="1">
+        <f>SUM(E15:BI15)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2411,7 +2408,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
+      <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -2421,19 +2418,21 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
+      <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
+      <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
-      <c r="AX16" s="2"/>
+      <c r="AX16" s="1">
+        <v>20</v>
+      </c>
       <c r="AY16" s="1">
         <v>20</v>
       </c>
@@ -2443,9 +2442,7 @@
       <c r="BA16" s="1">
         <v>20</v>
       </c>
-      <c r="BB16" s="1">
-        <v>20</v>
-      </c>
+      <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
@@ -2453,13 +2450,12 @@
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ16" s="1">
+        <f>SUM(E16:BI16)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2495,7 +2491,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
+      <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -2505,7 +2501,7 @@
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
+      <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
       <c r="AN17" s="4">
         <v>10</v>
@@ -2513,15 +2509,15 @@
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
+      <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
-      <c r="AV17" s="2">
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2">
         <v>10</v>
       </c>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
+      <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
@@ -2533,13 +2529,12 @@
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ17" s="1">
+        <f>SUM(E17:BI17)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2575,11 +2570,11 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1">
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1">
         <v>5</v>
       </c>
+      <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
@@ -2587,19 +2582,19 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
+      <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
+      <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
-      <c r="AX18" s="2"/>
+      <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
@@ -2611,13 +2606,12 @@
       <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ18" s="1">
+        <f>SUM(E18:BI18)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2653,31 +2647,31 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
+      <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1">
+      <c r="AD19" s="1">
         <v>5</v>
       </c>
+      <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
+      <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
+      <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
+      <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
@@ -2689,13 +2683,12 @@
       <c r="BG19" s="1"/>
       <c r="BH19" s="1"/>
       <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ19" s="1">
+        <f>SUM(E19:BI19)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2731,31 +2724,31 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
+      <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1">
+      <c r="AD20" s="1">
         <v>5</v>
       </c>
+      <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
+      <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
+      <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="AX20" s="2"/>
+      <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
@@ -2767,13 +2760,12 @@
       <c r="BG20" s="1"/>
       <c r="BH20" s="1"/>
       <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
-      <c r="BK20" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ20" s="1">
+        <f>SUM(E20:BI20)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2811,31 +2803,31 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
+      <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1">
+      <c r="AD21" s="1">
         <v>5</v>
       </c>
+      <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
+      <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
+      <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
-      <c r="AX21" s="2"/>
+      <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
@@ -2847,13 +2839,12 @@
       <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
-      <c r="BJ21" s="1"/>
-      <c r="BK21" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ21" s="1">
+        <f>SUM(E21:BI21)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2893,7 +2884,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
+      <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -2903,7 +2894,7 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
+      <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
       <c r="AN22" s="4">
         <v>10</v>
@@ -2911,15 +2902,15 @@
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
+      <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
-      <c r="AV22" s="2">
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2">
         <v>10</v>
       </c>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2"/>
+      <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
@@ -2931,13 +2922,12 @@
       <c r="BG22" s="1"/>
       <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
-      <c r="BJ22" s="1"/>
-      <c r="BK22" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ22" s="1">
+        <f>SUM(E22:BI22)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2977,7 +2967,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
+      <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -2987,7 +2977,7 @@
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
+      <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
       <c r="AN23" s="4">
         <v>5</v>
@@ -2995,15 +2985,15 @@
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
+      <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
-      <c r="AV23" s="2">
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2">
         <v>5</v>
       </c>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
+      <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
@@ -3015,13 +3005,12 @@
       <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
-      <c r="BJ23" s="1"/>
-      <c r="BK23" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ23" s="1">
+        <f>SUM(E23:BI23)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3057,7 +3046,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
+      <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -3067,45 +3056,44 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
+      <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
+      <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
+      <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
+      <c r="BD24" s="1">
+        <v>50</v>
+      </c>
       <c r="BE24" s="1">
         <v>50</v>
       </c>
-      <c r="BF24" s="1">
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1">
         <v>50</v>
       </c>
-      <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
       <c r="BI24" s="1">
         <v>50</v>
       </c>
       <c r="BJ24" s="1">
-        <v>50</v>
-      </c>
-      <c r="BK24" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(E24:BI24)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3145,7 +3133,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
+      <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -3155,7 +3143,7 @@
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
+      <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
       <c r="AN25" s="4">
         <v>5</v>
@@ -3163,15 +3151,15 @@
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="2">
+      <c r="AR25" s="2">
         <v>5</v>
       </c>
+      <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
+      <c r="AX25" s="1"/>
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
@@ -3183,13 +3171,12 @@
       <c r="BG25" s="1"/>
       <c r="BH25" s="1"/>
       <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
-      <c r="BK25" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ25" s="1">
+        <f>SUM(E25:BI25)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3227,7 +3214,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
+      <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -3237,19 +3224,19 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
+      <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
+      <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
+      <c r="AX26" s="1"/>
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
@@ -3261,13 +3248,12 @@
       <c r="BG26" s="1"/>
       <c r="BH26" s="1"/>
       <c r="BI26" s="1"/>
-      <c r="BJ26" s="1"/>
-      <c r="BK26" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ26" s="1">
+        <f>SUM(E26:BI26)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3302,10 +3288,10 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6">
+      <c r="AA27" s="6">
         <v>4</v>
       </c>
+      <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -3315,19 +3301,19 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
+      <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
+      <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
+      <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
@@ -3339,13 +3325,12 @@
       <c r="BG27" s="1"/>
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
-      <c r="BJ27" s="1"/>
-      <c r="BK27" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ27" s="1">
+        <f>SUM(E27:BI27)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3381,33 +3366,33 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
+      <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
+      <c r="AE28" s="1">
+        <v>5</v>
+      </c>
       <c r="AF28" s="1">
         <v>5</v>
       </c>
-      <c r="AG28" s="1">
-        <v>5</v>
-      </c>
+      <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
+      <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
       <c r="AN28" s="4"/>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
+      <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
+      <c r="AX28" s="1"/>
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
@@ -3419,13 +3404,12 @@
       <c r="BG28" s="1"/>
       <c r="BH28" s="1"/>
       <c r="BI28" s="1"/>
-      <c r="BJ28" s="1"/>
-      <c r="BK28" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ28" s="1">
+        <f>SUM(E28:BI28)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3461,35 +3445,35 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
+      <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
+      <c r="AE29" s="1">
+        <v>5</v>
+      </c>
       <c r="AF29" s="1">
         <v>5</v>
       </c>
       <c r="AG29" s="1">
         <v>5</v>
       </c>
-      <c r="AH29" s="1">
-        <v>5</v>
-      </c>
+      <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
+      <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
+      <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
+      <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
@@ -3501,13 +3485,12 @@
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
       <c r="BI29" s="1"/>
-      <c r="BJ29" s="1"/>
-      <c r="BK29" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ29" s="1">
+        <f>SUM(E29:BI29)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3543,31 +3526,31 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
+      <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1">
+      <c r="AH30" s="1">
         <v>5</v>
       </c>
+      <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
+      <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
+      <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
-      <c r="AX30" s="2"/>
+      <c r="AX30" s="1"/>
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
@@ -3579,13 +3562,12 @@
       <c r="BG30" s="1"/>
       <c r="BH30" s="1"/>
       <c r="BI30" s="1"/>
-      <c r="BJ30" s="1"/>
-      <c r="BK30" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ30" s="1">
+        <f>SUM(E30:BI30)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3621,31 +3603,31 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
+      <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1">
+      <c r="AH31" s="1">
         <v>5</v>
       </c>
+      <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
+      <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
+      <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
+      <c r="AX31" s="1"/>
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
@@ -3657,13 +3639,12 @@
       <c r="BG31" s="1"/>
       <c r="BH31" s="1"/>
       <c r="BI31" s="1"/>
-      <c r="BJ31" s="1"/>
-      <c r="BK31" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ31" s="1">
+        <f>SUM(E31:BI31)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -3699,31 +3680,31 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
+      <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1">
+      <c r="AF32" s="1">
         <v>5</v>
       </c>
+      <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
+      <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
       <c r="AP32" s="4"/>
       <c r="AQ32" s="4"/>
-      <c r="AR32" s="4"/>
+      <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
-      <c r="AX32" s="2"/>
+      <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
@@ -3735,13 +3716,12 @@
       <c r="BG32" s="1"/>
       <c r="BH32" s="1"/>
       <c r="BI32" s="1"/>
-      <c r="BJ32" s="1"/>
-      <c r="BK32" s="1">
-        <f t="shared" si="0"/>
+      <c r="BJ32" s="1">
+        <f>SUM(E32:BI32)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -3777,31 +3757,31 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
+      <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1">
+      <c r="AE33" s="1">
         <v>5</v>
       </c>
+      <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
+      <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
       <c r="AQ33" s="4"/>
-      <c r="AR33" s="4"/>
+      <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
+      <c r="AX33" s="1"/>
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
@@ -3813,13 +3793,12 @@
       <c r="BG33" s="1"/>
       <c r="BH33" s="1"/>
       <c r="BI33" s="1"/>
-      <c r="BJ33" s="1"/>
-      <c r="BK33" s="1">
-        <f t="shared" ref="BK33:BK60" si="1">SUM(E33:BJ33)</f>
+      <c r="BJ33" s="1">
+        <f>SUM(E33:BI33)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -3855,7 +3834,7 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
+      <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -3865,45 +3844,44 @@
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
+      <c r="AL34" s="4">
+        <v>15</v>
+      </c>
       <c r="AM34" s="4"/>
       <c r="AN34" s="4"/>
-      <c r="AO34" s="4">
-        <v>15</v>
-      </c>
+      <c r="AO34" s="4"/>
       <c r="AP34" s="4"/>
       <c r="AQ34" s="4"/>
-      <c r="AR34" s="4"/>
+      <c r="AR34" s="2"/>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2"/>
-      <c r="AV34" s="2">
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2">
         <v>15</v>
       </c>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
+      <c r="AX34" s="1"/>
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
+      <c r="BB34" s="1">
+        <v>15</v>
+      </c>
       <c r="BC34" s="1">
         <v>15</v>
       </c>
-      <c r="BD34" s="1">
-        <v>15</v>
-      </c>
+      <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
       <c r="BG34" s="1"/>
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
-      <c r="BJ34" s="1"/>
-      <c r="BK34" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ34" s="1">
+        <f>SUM(E34:BI34)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -3939,7 +3917,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
+      <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -3949,19 +3927,21 @@
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
+      <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
       <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
+      <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2"/>
       <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
-      <c r="AX35" s="2"/>
+      <c r="AX35" s="1">
+        <v>20</v>
+      </c>
       <c r="AY35" s="1">
         <v>20</v>
       </c>
@@ -3971,9 +3951,7 @@
       <c r="BA35" s="1">
         <v>20</v>
       </c>
-      <c r="BB35" s="1">
-        <v>20</v>
-      </c>
+      <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
@@ -3981,13 +3959,12 @@
       <c r="BG35" s="1"/>
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
-      <c r="BJ35" s="1"/>
-      <c r="BK35" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ35" s="1">
+        <f>SUM(E35:BI35)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -4027,7 +4004,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
+      <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -4037,23 +4014,23 @@
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
+      <c r="AL36" s="4">
+        <v>10</v>
+      </c>
       <c r="AM36" s="4"/>
       <c r="AN36" s="4"/>
-      <c r="AO36" s="4">
-        <v>10</v>
-      </c>
+      <c r="AO36" s="4"/>
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
+      <c r="AR36" s="2"/>
       <c r="AS36" s="2"/>
-      <c r="AT36" s="2"/>
+      <c r="AT36" s="2">
+        <v>10</v>
+      </c>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2"/>
-      <c r="AW36" s="2">
-        <v>10</v>
-      </c>
-      <c r="AX36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
@@ -4065,13 +4042,12 @@
       <c r="BG36" s="1"/>
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
-      <c r="BJ36" s="1"/>
-      <c r="BK36" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ36" s="1">
+        <f>SUM(E36:BI36)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -4111,7 +4087,7 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
+      <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -4121,19 +4097,19 @@
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
+      <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
+      <c r="AR37" s="2"/>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2"/>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
-      <c r="AX37" s="2"/>
+      <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
@@ -4145,13 +4121,12 @@
       <c r="BG37" s="1"/>
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
-      <c r="BJ37" s="1"/>
-      <c r="BK37" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ37" s="1">
+        <f>SUM(E37:BI37)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -4191,7 +4166,7 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
+      <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -4201,19 +4176,19 @@
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
+      <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
       <c r="AP38" s="4"/>
       <c r="AQ38" s="4"/>
-      <c r="AR38" s="4"/>
+      <c r="AR38" s="2"/>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2"/>
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
+      <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
@@ -4225,13 +4200,12 @@
       <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
-      <c r="BJ38" s="1"/>
-      <c r="BK38" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ38" s="1">
+        <f>SUM(E38:BI38)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -4271,7 +4245,7 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
+      <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
@@ -4281,23 +4255,23 @@
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
+      <c r="AL39" s="4">
+        <v>10</v>
+      </c>
       <c r="AM39" s="4"/>
       <c r="AN39" s="4"/>
-      <c r="AO39" s="4">
-        <v>10</v>
-      </c>
+      <c r="AO39" s="4"/>
       <c r="AP39" s="4"/>
       <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2">
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2">
         <v>10</v>
       </c>
+      <c r="AT39" s="2"/>
       <c r="AU39" s="2"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
+      <c r="AX39" s="1"/>
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
@@ -4309,13 +4283,12 @@
       <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
-      <c r="BJ39" s="1"/>
-      <c r="BK39" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ39" s="1">
+        <f>SUM(E39:BI39)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -4355,7 +4328,7 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
+      <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
@@ -4365,19 +4338,19 @@
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
+      <c r="AL40" s="4"/>
       <c r="AM40" s="4"/>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
       <c r="AP40" s="4"/>
       <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
+      <c r="AR40" s="2"/>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
+      <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
@@ -4389,13 +4362,12 @@
       <c r="BG40" s="1"/>
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
-      <c r="BJ40" s="1"/>
-      <c r="BK40" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ40" s="1">
+        <f>SUM(E40:BI40)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -4435,7 +4407,7 @@
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
+      <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -4445,23 +4417,23 @@
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
+      <c r="AL41" s="4">
+        <v>10</v>
+      </c>
       <c r="AM41" s="4"/>
       <c r="AN41" s="4"/>
-      <c r="AO41" s="4">
-        <v>10</v>
-      </c>
+      <c r="AO41" s="4"/>
       <c r="AP41" s="4"/>
       <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="2">
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2">
         <v>10</v>
       </c>
+      <c r="AT41" s="2"/>
       <c r="AU41" s="2"/>
       <c r="AV41" s="2"/>
       <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
+      <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
@@ -4473,18 +4445,17 @@
       <c r="BG41" s="1"/>
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
-      <c r="BJ41" s="1"/>
-      <c r="BK41" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ41" s="1">
+        <f>SUM(E41:BI41)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>52</v>
@@ -4519,7 +4490,7 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
+      <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -4529,15 +4500,15 @@
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
+      <c r="AL42" s="4">
+        <v>10</v>
+      </c>
       <c r="AM42" s="4"/>
       <c r="AN42" s="4"/>
-      <c r="AO42" s="4">
-        <v>10</v>
-      </c>
+      <c r="AO42" s="4"/>
       <c r="AP42" s="4"/>
       <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
+      <c r="AR42" s="2"/>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2">
@@ -4545,7 +4516,7 @@
       </c>
       <c r="AV42" s="2"/>
       <c r="AW42" s="2"/>
-      <c r="AX42" s="2"/>
+      <c r="AX42" s="1"/>
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
@@ -4557,13 +4528,12 @@
       <c r="BG42" s="1"/>
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
-      <c r="BJ42" s="1"/>
-      <c r="BK42" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ42" s="1">
+        <f>SUM(E42:BI42)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -4601,7 +4571,7 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
+      <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -4611,19 +4581,19 @@
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
+      <c r="AL43" s="4"/>
       <c r="AM43" s="4"/>
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
       <c r="AP43" s="4"/>
       <c r="AQ43" s="4"/>
-      <c r="AR43" s="4"/>
+      <c r="AR43" s="2"/>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2"/>
       <c r="AV43" s="2"/>
       <c r="AW43" s="2"/>
-      <c r="AX43" s="2"/>
+      <c r="AX43" s="1"/>
       <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
@@ -4635,13 +4605,12 @@
       <c r="BG43" s="1"/>
       <c r="BH43" s="1"/>
       <c r="BI43" s="1"/>
-      <c r="BJ43" s="1"/>
-      <c r="BK43" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ43" s="1">
+        <f>SUM(E43:BI43)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -4681,7 +4650,7 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
+      <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -4691,15 +4660,15 @@
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
-      <c r="AL44" s="1"/>
+      <c r="AL44" s="4">
+        <v>10</v>
+      </c>
       <c r="AM44" s="4"/>
       <c r="AN44" s="4"/>
-      <c r="AO44" s="4">
-        <v>10</v>
-      </c>
+      <c r="AO44" s="4"/>
       <c r="AP44" s="4"/>
       <c r="AQ44" s="4"/>
-      <c r="AR44" s="4"/>
+      <c r="AR44" s="2"/>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2">
@@ -4707,7 +4676,7 @@
       </c>
       <c r="AV44" s="2"/>
       <c r="AW44" s="2"/>
-      <c r="AX44" s="2"/>
+      <c r="AX44" s="1"/>
       <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
@@ -4719,13 +4688,12 @@
       <c r="BG44" s="1"/>
       <c r="BH44" s="1"/>
       <c r="BI44" s="1"/>
-      <c r="BJ44" s="1"/>
-      <c r="BK44" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ44" s="1">
+        <f>SUM(E44:BI44)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -4763,7 +4731,7 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
+      <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -4773,19 +4741,19 @@
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
-      <c r="AL45" s="1"/>
+      <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
       <c r="AP45" s="4"/>
       <c r="AQ45" s="4"/>
-      <c r="AR45" s="4"/>
+      <c r="AR45" s="2"/>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2"/>
       <c r="AV45" s="2"/>
       <c r="AW45" s="2"/>
-      <c r="AX45" s="2"/>
+      <c r="AX45" s="1"/>
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
@@ -4797,13 +4765,12 @@
       <c r="BG45" s="1"/>
       <c r="BH45" s="1"/>
       <c r="BI45" s="1"/>
-      <c r="BJ45" s="1"/>
-      <c r="BK45" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ45" s="1">
+        <f>SUM(E45:BI45)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>47</v>
       </c>
@@ -4841,7 +4808,7 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
+      <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -4851,19 +4818,19 @@
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
-      <c r="AL46" s="1"/>
+      <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
-      <c r="AR46" s="4"/>
+      <c r="AR46" s="2"/>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2"/>
       <c r="AV46" s="2"/>
       <c r="AW46" s="2"/>
-      <c r="AX46" s="2"/>
+      <c r="AX46" s="1"/>
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
@@ -4875,18 +4842,17 @@
       <c r="BG46" s="1"/>
       <c r="BH46" s="1"/>
       <c r="BI46" s="1"/>
-      <c r="BJ46" s="1"/>
-      <c r="BK46" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ46" s="1">
+        <f>SUM(E46:BI46)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>52</v>
@@ -4919,7 +4885,7 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
+      <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -4929,19 +4895,19 @@
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
-      <c r="AL47" s="1"/>
+      <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
       <c r="AP47" s="4"/>
       <c r="AQ47" s="4"/>
-      <c r="AR47" s="4"/>
+      <c r="AR47" s="2"/>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2"/>
       <c r="AV47" s="2"/>
       <c r="AW47" s="2"/>
-      <c r="AX47" s="2"/>
+      <c r="AX47" s="1"/>
       <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
@@ -4953,18 +4919,17 @@
       <c r="BG47" s="1"/>
       <c r="BH47" s="1"/>
       <c r="BI47" s="1"/>
-      <c r="BJ47" s="1"/>
-      <c r="BK47" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ47" s="1">
+        <f>SUM(E47:BI47)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>52</v>
@@ -4995,10 +4960,10 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="1">
+      <c r="AB48" s="1">
         <v>1</v>
       </c>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
@@ -5007,19 +4972,19 @@
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
+      <c r="AL48" s="4"/>
       <c r="AM48" s="4"/>
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4"/>
       <c r="AQ48" s="4"/>
-      <c r="AR48" s="4"/>
+      <c r="AR48" s="2"/>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2"/>
       <c r="AU48" s="2"/>
       <c r="AV48" s="2"/>
       <c r="AW48" s="2"/>
-      <c r="AX48" s="2"/>
+      <c r="AX48" s="1"/>
       <c r="AY48" s="1"/>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
@@ -5031,18 +4996,17 @@
       <c r="BG48" s="1"/>
       <c r="BH48" s="1"/>
       <c r="BI48" s="1"/>
-      <c r="BJ48" s="1"/>
-      <c r="BK48" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ48" s="1">
+        <f>SUM(E48:BI48)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>52</v>
@@ -5073,10 +5037,10 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="1">
+      <c r="AB49" s="1">
         <v>1</v>
       </c>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
@@ -5085,19 +5049,19 @@
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
+      <c r="AL49" s="4"/>
       <c r="AM49" s="4"/>
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
       <c r="AP49" s="4"/>
       <c r="AQ49" s="4"/>
-      <c r="AR49" s="4"/>
+      <c r="AR49" s="2"/>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2"/>
       <c r="AV49" s="2"/>
       <c r="AW49" s="2"/>
-      <c r="AX49" s="2"/>
+      <c r="AX49" s="1"/>
       <c r="AY49" s="1"/>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
@@ -5109,13 +5073,12 @@
       <c r="BG49" s="1"/>
       <c r="BH49" s="1"/>
       <c r="BI49" s="1"/>
-      <c r="BJ49" s="1"/>
-      <c r="BK49" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ49" s="1">
+        <f>SUM(E49:BI49)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>54</v>
       </c>
@@ -5155,7 +5118,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
+      <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -5165,23 +5128,23 @@
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
+      <c r="AL50" s="4"/>
       <c r="AM50" s="4"/>
       <c r="AN50" s="4"/>
       <c r="AO50" s="4"/>
-      <c r="AP50" s="4">
+      <c r="AP50" s="4"/>
+      <c r="AQ50" s="4">
         <v>15</v>
       </c>
-      <c r="AQ50" s="4"/>
-      <c r="AR50" s="4"/>
+      <c r="AR50" s="2"/>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2"/>
-      <c r="AV50" s="2"/>
+      <c r="AV50" s="2">
+        <v>15</v>
+      </c>
       <c r="AW50" s="2"/>
-      <c r="AX50" s="2">
-        <v>15</v>
-      </c>
+      <c r="AX50" s="1"/>
       <c r="AY50" s="1"/>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
@@ -5193,13 +5156,12 @@
       <c r="BG50" s="1"/>
       <c r="BH50" s="1"/>
       <c r="BI50" s="1"/>
-      <c r="BJ50" s="1"/>
-      <c r="BK50" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ50" s="1">
+        <f>SUM(E50:BI50)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>55</v>
       </c>
@@ -5235,7 +5197,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
+      <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -5245,21 +5207,23 @@
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
+      <c r="AL51" s="4"/>
       <c r="AM51" s="4"/>
       <c r="AN51" s="4"/>
       <c r="AO51" s="4"/>
       <c r="AP51" s="4"/>
       <c r="AQ51" s="4"/>
-      <c r="AR51" s="4"/>
+      <c r="AR51" s="2"/>
       <c r="AS51" s="2"/>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2"/>
       <c r="AV51" s="2"/>
       <c r="AW51" s="2"/>
-      <c r="AX51" s="2"/>
+      <c r="AX51" s="1"/>
       <c r="AY51" s="1"/>
-      <c r="AZ51" s="1"/>
+      <c r="AZ51" s="1">
+        <v>20</v>
+      </c>
       <c r="BA51" s="1">
         <v>20</v>
       </c>
@@ -5269,21 +5233,18 @@
       <c r="BC51" s="1">
         <v>20</v>
       </c>
-      <c r="BD51" s="1">
-        <v>20</v>
-      </c>
+      <c r="BD51" s="1"/>
       <c r="BE51" s="1"/>
       <c r="BF51" s="1"/>
       <c r="BG51" s="1"/>
       <c r="BH51" s="1"/>
       <c r="BI51" s="1"/>
-      <c r="BJ51" s="1"/>
-      <c r="BK51" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ51" s="1">
+        <f>SUM(E51:BI51)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>56</v>
       </c>
@@ -5319,7 +5280,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
+      <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -5329,23 +5290,23 @@
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
+      <c r="AL52" s="4"/>
       <c r="AM52" s="4"/>
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
-      <c r="AP52" s="4">
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4">
         <v>10</v>
       </c>
-      <c r="AQ52" s="4"/>
-      <c r="AR52" s="4"/>
+      <c r="AR52" s="2"/>
       <c r="AS52" s="2"/>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2"/>
-      <c r="AV52" s="2"/>
+      <c r="AV52" s="2">
+        <v>10</v>
+      </c>
       <c r="AW52" s="2"/>
-      <c r="AX52" s="2">
-        <v>10</v>
-      </c>
+      <c r="AX52" s="1"/>
       <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
@@ -5357,18 +5318,17 @@
       <c r="BG52" s="1"/>
       <c r="BH52" s="1"/>
       <c r="BI52" s="1"/>
-      <c r="BJ52" s="1"/>
-      <c r="BK52" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ52" s="1">
+        <f>SUM(E52:BI52)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>68</v>
@@ -5399,7 +5359,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
-      <c r="AB53" s="6"/>
+      <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -5409,23 +5369,23 @@
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
+      <c r="AL53" s="4"/>
       <c r="AM53" s="4"/>
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
-      <c r="AP53" s="4">
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4">
         <v>10</v>
       </c>
-      <c r="AQ53" s="4"/>
-      <c r="AR53" s="4"/>
+      <c r="AR53" s="2"/>
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2"/>
-      <c r="AV53" s="2"/>
+      <c r="AV53" s="2">
+        <v>10</v>
+      </c>
       <c r="AW53" s="2"/>
-      <c r="AX53" s="2">
-        <v>10</v>
-      </c>
+      <c r="AX53" s="1"/>
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -5437,13 +5397,12 @@
       <c r="BG53" s="1"/>
       <c r="BH53" s="1"/>
       <c r="BI53" s="1"/>
-      <c r="BJ53" s="1"/>
-      <c r="BK53" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ53" s="1">
+        <f>SUM(E53:BI53)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>58</v>
       </c>
@@ -5483,7 +5442,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
-      <c r="AB54" s="6"/>
+      <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -5493,15 +5452,15 @@
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
+      <c r="AL54" s="4"/>
       <c r="AM54" s="4"/>
       <c r="AN54" s="4"/>
       <c r="AO54" s="4"/>
-      <c r="AP54" s="4">
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="4">
         <v>10</v>
       </c>
-      <c r="AQ54" s="4"/>
-      <c r="AR54" s="4"/>
+      <c r="AR54" s="2"/>
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2">
@@ -5509,7 +5468,7 @@
       </c>
       <c r="AV54" s="2"/>
       <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
+      <c r="AX54" s="1"/>
       <c r="AY54" s="1"/>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -5521,13 +5480,12 @@
       <c r="BG54" s="1"/>
       <c r="BH54" s="1"/>
       <c r="BI54" s="1"/>
-      <c r="BJ54" s="1"/>
-      <c r="BK54" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ54" s="1">
+        <f>SUM(E54:BI54)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>59</v>
       </c>
@@ -5565,7 +5523,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
-      <c r="AB55" s="6"/>
+      <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -5575,19 +5533,19 @@
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
+      <c r="AL55" s="4"/>
       <c r="AM55" s="4"/>
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
       <c r="AP55" s="4"/>
       <c r="AQ55" s="4"/>
-      <c r="AR55" s="4"/>
+      <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
       <c r="AT55" s="2"/>
       <c r="AU55" s="2"/>
       <c r="AV55" s="2"/>
       <c r="AW55" s="2"/>
-      <c r="AX55" s="2"/>
+      <c r="AX55" s="1"/>
       <c r="AY55" s="1"/>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -5599,13 +5557,12 @@
       <c r="BG55" s="1"/>
       <c r="BH55" s="1"/>
       <c r="BI55" s="1"/>
-      <c r="BJ55" s="1"/>
-      <c r="BK55" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ55" s="1">
+        <f>SUM(E55:BI55)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>60</v>
       </c>
@@ -5645,7 +5602,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
-      <c r="AB56" s="6"/>
+      <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -5655,19 +5612,19 @@
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
+      <c r="AL56" s="4"/>
       <c r="AM56" s="4"/>
       <c r="AN56" s="4"/>
       <c r="AO56" s="4"/>
       <c r="AP56" s="4"/>
       <c r="AQ56" s="4"/>
-      <c r="AR56" s="4"/>
+      <c r="AR56" s="2"/>
       <c r="AS56" s="2"/>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2"/>
       <c r="AV56" s="2"/>
       <c r="AW56" s="2"/>
-      <c r="AX56" s="2"/>
+      <c r="AX56" s="1"/>
       <c r="AY56" s="1"/>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
@@ -5679,13 +5636,12 @@
       <c r="BG56" s="1"/>
       <c r="BH56" s="1"/>
       <c r="BI56" s="1"/>
-      <c r="BJ56" s="1"/>
-      <c r="BK56" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ56" s="1">
+        <f>SUM(E56:BI56)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>61</v>
       </c>
@@ -5721,7 +5677,7 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
-      <c r="AB57" s="6"/>
+      <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -5729,23 +5685,23 @@
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1">
+      <c r="AJ57" s="1">
         <v>5</v>
       </c>
-      <c r="AL57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="4"/>
       <c r="AM57" s="4"/>
       <c r="AN57" s="4"/>
       <c r="AO57" s="4"/>
       <c r="AP57" s="4"/>
       <c r="AQ57" s="4"/>
-      <c r="AR57" s="4"/>
+      <c r="AR57" s="2"/>
       <c r="AS57" s="2"/>
       <c r="AT57" s="2"/>
       <c r="AU57" s="2"/>
       <c r="AV57" s="2"/>
       <c r="AW57" s="2"/>
-      <c r="AX57" s="2"/>
+      <c r="AX57" s="1"/>
       <c r="AY57" s="1"/>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
@@ -5757,13 +5713,12 @@
       <c r="BG57" s="1"/>
       <c r="BH57" s="1"/>
       <c r="BI57" s="1"/>
-      <c r="BJ57" s="1"/>
-      <c r="BK57" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ57" s="1">
+        <f>SUM(E57:BI57)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>62</v>
       </c>
@@ -5799,7 +5754,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
+      <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -5807,23 +5762,23 @@
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1">
+      <c r="AJ58" s="1">
         <v>15</v>
       </c>
-      <c r="AL58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="4"/>
       <c r="AM58" s="4"/>
       <c r="AN58" s="4"/>
       <c r="AO58" s="4"/>
       <c r="AP58" s="4"/>
       <c r="AQ58" s="4"/>
-      <c r="AR58" s="4"/>
+      <c r="AR58" s="2"/>
       <c r="AS58" s="2"/>
       <c r="AT58" s="2"/>
       <c r="AU58" s="2"/>
       <c r="AV58" s="2"/>
       <c r="AW58" s="2"/>
-      <c r="AX58" s="2"/>
+      <c r="AX58" s="1"/>
       <c r="AY58" s="1"/>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
@@ -5835,13 +5790,12 @@
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
       <c r="BI58" s="1"/>
-      <c r="BJ58" s="1"/>
-      <c r="BK58" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ58" s="1">
+        <f>SUM(E58:BI58)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>63</v>
       </c>
@@ -5877,7 +5831,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
+      <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -5886,22 +5840,22 @@
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="1">
+      <c r="AK59" s="1">
         <v>5</v>
       </c>
+      <c r="AL59" s="4"/>
       <c r="AM59" s="4"/>
       <c r="AN59" s="4"/>
       <c r="AO59" s="4"/>
       <c r="AP59" s="4"/>
       <c r="AQ59" s="4"/>
-      <c r="AR59" s="4"/>
+      <c r="AR59" s="2"/>
       <c r="AS59" s="2"/>
       <c r="AT59" s="2"/>
       <c r="AU59" s="2"/>
       <c r="AV59" s="2"/>
       <c r="AW59" s="2"/>
-      <c r="AX59" s="2"/>
+      <c r="AX59" s="1"/>
       <c r="AY59" s="1"/>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
@@ -5913,13 +5867,12 @@
       <c r="BG59" s="1"/>
       <c r="BH59" s="1"/>
       <c r="BI59" s="1"/>
-      <c r="BJ59" s="1"/>
-      <c r="BK59" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ59" s="1">
+        <f>SUM(E59:BI59)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>64</v>
       </c>
@@ -5955,7 +5908,7 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
-      <c r="AB60" s="6"/>
+      <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -5964,22 +5917,22 @@
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="1">
+      <c r="AK60" s="1">
         <v>15</v>
       </c>
+      <c r="AL60" s="4"/>
       <c r="AM60" s="4"/>
       <c r="AN60" s="4"/>
       <c r="AO60" s="4"/>
       <c r="AP60" s="4"/>
       <c r="AQ60" s="4"/>
-      <c r="AR60" s="4"/>
+      <c r="AR60" s="2"/>
       <c r="AS60" s="2"/>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2"/>
       <c r="AV60" s="2"/>
       <c r="AW60" s="2"/>
-      <c r="AX60" s="2"/>
+      <c r="AX60" s="1"/>
       <c r="AY60" s="1"/>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
@@ -5991,13 +5944,12 @@
       <c r="BG60" s="1"/>
       <c r="BH60" s="1"/>
       <c r="BI60" s="1"/>
-      <c r="BJ60" s="1"/>
-      <c r="BK60" s="1">
-        <f t="shared" si="1"/>
+      <c r="BJ60" s="1">
+        <f>SUM(E60:BI60)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>65</v>
       </c>
@@ -6035,7 +5987,7 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
-      <c r="AB61" s="6"/>
+      <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
@@ -6044,18 +5996,18 @@
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1">
+      <c r="AK61" s="1">
         <v>25</v>
       </c>
+      <c r="AL61" s="4"/>
       <c r="AM61" s="4"/>
       <c r="AN61" s="4"/>
       <c r="AO61" s="4"/>
-      <c r="AP61" s="4">
+      <c r="AP61" s="4"/>
+      <c r="AQ61" s="4">
         <v>10</v>
       </c>
-      <c r="AQ61" s="4"/>
-      <c r="AR61" s="4"/>
+      <c r="AR61" s="2"/>
       <c r="AS61" s="2"/>
       <c r="AT61" s="2"/>
       <c r="AU61" s="2">
@@ -6063,7 +6015,7 @@
       </c>
       <c r="AV61" s="2"/>
       <c r="AW61" s="2"/>
-      <c r="AX61" s="2"/>
+      <c r="AX61" s="1"/>
       <c r="AY61" s="1"/>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
@@ -6075,13 +6027,12 @@
       <c r="BG61" s="1"/>
       <c r="BH61" s="1"/>
       <c r="BI61" s="1"/>
-      <c r="BJ61" s="1"/>
-      <c r="BK61" s="1">
-        <f t="shared" ref="BK61:BK91" si="2">SUM(E61:BJ61)</f>
+      <c r="BJ61" s="1">
+        <f>SUM(E61:BI61)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>66</v>
       </c>
@@ -6121,7 +6072,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
-      <c r="AB62" s="6"/>
+      <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
@@ -6131,19 +6082,19 @@
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
+      <c r="AL62" s="4"/>
       <c r="AM62" s="4"/>
       <c r="AN62" s="4"/>
       <c r="AO62" s="4"/>
       <c r="AP62" s="4"/>
       <c r="AQ62" s="4"/>
-      <c r="AR62" s="4"/>
+      <c r="AR62" s="2"/>
       <c r="AS62" s="2"/>
       <c r="AT62" s="2"/>
       <c r="AU62" s="2"/>
       <c r="AV62" s="2"/>
       <c r="AW62" s="2"/>
-      <c r="AX62" s="2"/>
+      <c r="AX62" s="1"/>
       <c r="AY62" s="1"/>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
@@ -6155,13 +6106,12 @@
       <c r="BG62" s="1"/>
       <c r="BH62" s="1"/>
       <c r="BI62" s="1"/>
-      <c r="BJ62" s="1"/>
-      <c r="BK62" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ62" s="1">
+        <f>SUM(E62:BI62)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>67</v>
       </c>
@@ -6201,7 +6151,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
-      <c r="AB63" s="6"/>
+      <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
@@ -6211,19 +6161,19 @@
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
+      <c r="AL63" s="4"/>
       <c r="AM63" s="4"/>
       <c r="AN63" s="4"/>
       <c r="AO63" s="4"/>
       <c r="AP63" s="4"/>
       <c r="AQ63" s="4"/>
-      <c r="AR63" s="4"/>
+      <c r="AR63" s="2"/>
       <c r="AS63" s="2"/>
       <c r="AT63" s="2"/>
       <c r="AU63" s="2"/>
       <c r="AV63" s="2"/>
       <c r="AW63" s="2"/>
-      <c r="AX63" s="2"/>
+      <c r="AX63" s="1"/>
       <c r="AY63" s="1"/>
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1"/>
@@ -6235,13 +6185,12 @@
       <c r="BG63" s="1"/>
       <c r="BH63" s="1"/>
       <c r="BI63" s="1"/>
-      <c r="BJ63" s="1"/>
-      <c r="BK63" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ63" s="1">
+        <f>SUM(E63:BI63)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>68</v>
       </c>
@@ -6281,7 +6230,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
-      <c r="AB64" s="6"/>
+      <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
@@ -6291,23 +6240,23 @@
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
-      <c r="AL64" s="1"/>
+      <c r="AL64" s="4"/>
       <c r="AM64" s="4"/>
       <c r="AN64" s="4"/>
       <c r="AO64" s="4"/>
-      <c r="AP64" s="4">
+      <c r="AP64" s="4"/>
+      <c r="AQ64" s="4">
         <v>10</v>
       </c>
-      <c r="AQ64" s="4"/>
-      <c r="AR64" s="4"/>
+      <c r="AR64" s="2"/>
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
       <c r="AU64" s="2"/>
-      <c r="AV64" s="2">
+      <c r="AV64" s="2"/>
+      <c r="AW64" s="2">
         <v>10</v>
       </c>
-      <c r="AW64" s="2"/>
-      <c r="AX64" s="2"/>
+      <c r="AX64" s="1"/>
       <c r="AY64" s="1"/>
       <c r="AZ64" s="1"/>
       <c r="BA64" s="1"/>
@@ -6319,13 +6268,12 @@
       <c r="BG64" s="1"/>
       <c r="BH64" s="1"/>
       <c r="BI64" s="1"/>
-      <c r="BJ64" s="1"/>
-      <c r="BK64" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ64" s="1">
+        <f>SUM(E64:BI64)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>69</v>
       </c>
@@ -6365,7 +6313,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
+      <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
@@ -6375,23 +6323,23 @@
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
+      <c r="AL65" s="4"/>
       <c r="AM65" s="4"/>
       <c r="AN65" s="4"/>
       <c r="AO65" s="4"/>
-      <c r="AP65" s="4">
+      <c r="AP65" s="4"/>
+      <c r="AQ65" s="4">
         <v>10</v>
       </c>
-      <c r="AQ65" s="4"/>
-      <c r="AR65" s="4"/>
-      <c r="AS65" s="2"/>
-      <c r="AT65" s="2">
+      <c r="AR65" s="2"/>
+      <c r="AS65" s="2">
         <v>10</v>
       </c>
+      <c r="AT65" s="2"/>
       <c r="AU65" s="2"/>
       <c r="AV65" s="2"/>
       <c r="AW65" s="2"/>
-      <c r="AX65" s="2"/>
+      <c r="AX65" s="1"/>
       <c r="AY65" s="1"/>
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1"/>
@@ -6403,18 +6351,17 @@
       <c r="BG65" s="1"/>
       <c r="BH65" s="1"/>
       <c r="BI65" s="1"/>
-      <c r="BJ65" s="1"/>
-      <c r="BK65" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ65" s="1">
+        <f>SUM(E65:BI65)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>72</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>68</v>
@@ -6449,7 +6396,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
-      <c r="AB66" s="6"/>
+      <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
@@ -6459,23 +6406,23 @@
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
+      <c r="AL66" s="4"/>
       <c r="AM66" s="4"/>
       <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
-      <c r="AP66" s="4">
+      <c r="AP66" s="4"/>
+      <c r="AQ66" s="4">
         <v>10</v>
       </c>
-      <c r="AQ66" s="4"/>
-      <c r="AR66" s="4"/>
+      <c r="AR66" s="2"/>
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
       <c r="AU66" s="2"/>
-      <c r="AV66" s="2"/>
+      <c r="AV66" s="2">
+        <v>10</v>
+      </c>
       <c r="AW66" s="2"/>
-      <c r="AX66" s="2">
-        <v>10</v>
-      </c>
+      <c r="AX66" s="1"/>
       <c r="AY66" s="1"/>
       <c r="AZ66" s="1"/>
       <c r="BA66" s="1"/>
@@ -6487,18 +6434,17 @@
       <c r="BG66" s="1"/>
       <c r="BH66" s="1"/>
       <c r="BI66" s="1"/>
-      <c r="BJ66" s="1"/>
-      <c r="BK66" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ66" s="1">
+        <f>SUM(E66:BI66)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>73</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>68</v>
@@ -6533,7 +6479,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
-      <c r="AB67" s="6"/>
+      <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
@@ -6543,19 +6489,19 @@
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
+      <c r="AL67" s="4"/>
       <c r="AM67" s="4"/>
       <c r="AN67" s="4"/>
       <c r="AO67" s="4"/>
       <c r="AP67" s="4"/>
       <c r="AQ67" s="4"/>
-      <c r="AR67" s="4"/>
+      <c r="AR67" s="2"/>
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
       <c r="AU67" s="2"/>
       <c r="AV67" s="2"/>
       <c r="AW67" s="2"/>
-      <c r="AX67" s="2"/>
+      <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
       <c r="BA67" s="1"/>
@@ -6567,18 +6513,17 @@
       <c r="BG67" s="1"/>
       <c r="BH67" s="1"/>
       <c r="BI67" s="1"/>
-      <c r="BJ67" s="1"/>
-      <c r="BK67" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ67" s="1">
+        <f>SUM(E67:BI67)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>74</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>68</v>
@@ -6613,7 +6558,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
-      <c r="AB68" s="6"/>
+      <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
@@ -6623,19 +6568,19 @@
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
+      <c r="AL68" s="4"/>
       <c r="AM68" s="4"/>
       <c r="AN68" s="4"/>
       <c r="AO68" s="4"/>
       <c r="AP68" s="4"/>
       <c r="AQ68" s="4"/>
-      <c r="AR68" s="4"/>
+      <c r="AR68" s="2"/>
       <c r="AS68" s="2"/>
       <c r="AT68" s="2"/>
       <c r="AU68" s="2"/>
       <c r="AV68" s="2"/>
       <c r="AW68" s="2"/>
-      <c r="AX68" s="2"/>
+      <c r="AX68" s="1"/>
       <c r="AY68" s="1"/>
       <c r="AZ68" s="1"/>
       <c r="BA68" s="1"/>
@@ -6647,13 +6592,12 @@
       <c r="BG68" s="1"/>
       <c r="BH68" s="1"/>
       <c r="BI68" s="1"/>
-      <c r="BJ68" s="1"/>
-      <c r="BK68" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ68" s="1">
+        <f>SUM(E68:BI68)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>75</v>
       </c>
@@ -6689,11 +6633,11 @@
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
-      <c r="AA69" s="6">
+      <c r="Z69" s="6">
         <v>25</v>
       </c>
-      <c r="AB69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
@@ -6703,19 +6647,19 @@
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
+      <c r="AL69" s="4"/>
       <c r="AM69" s="4"/>
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
       <c r="AP69" s="4"/>
       <c r="AQ69" s="4"/>
-      <c r="AR69" s="4"/>
+      <c r="AR69" s="2"/>
       <c r="AS69" s="2"/>
       <c r="AT69" s="2"/>
       <c r="AU69" s="2"/>
       <c r="AV69" s="2"/>
       <c r="AW69" s="2"/>
-      <c r="AX69" s="2"/>
+      <c r="AX69" s="1"/>
       <c r="AY69" s="1"/>
       <c r="AZ69" s="1"/>
       <c r="BA69" s="1"/>
@@ -6727,13 +6671,12 @@
       <c r="BG69" s="1"/>
       <c r="BH69" s="1"/>
       <c r="BI69" s="1"/>
-      <c r="BJ69" s="1"/>
-      <c r="BK69" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ69" s="1">
+        <f>SUM(E69:BI69)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>76</v>
       </c>
@@ -6771,7 +6714,7 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
-      <c r="AB70" s="6"/>
+      <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
@@ -6781,39 +6724,38 @@
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
-      <c r="AL70" s="1"/>
+      <c r="AL70" s="4"/>
       <c r="AM70" s="4"/>
       <c r="AN70" s="4"/>
       <c r="AO70" s="4"/>
       <c r="AP70" s="4"/>
       <c r="AQ70" s="4"/>
-      <c r="AR70" s="4"/>
+      <c r="AR70" s="2"/>
       <c r="AS70" s="2"/>
       <c r="AT70" s="2"/>
       <c r="AU70" s="2"/>
       <c r="AV70" s="2"/>
       <c r="AW70" s="2"/>
-      <c r="AX70" s="2"/>
+      <c r="AX70" s="1"/>
       <c r="AY70" s="1"/>
       <c r="AZ70" s="1"/>
       <c r="BA70" s="1"/>
-      <c r="BB70" s="1"/>
-      <c r="BC70" s="1">
+      <c r="BB70" s="1">
         <v>10</v>
       </c>
+      <c r="BC70" s="1"/>
       <c r="BD70" s="1"/>
       <c r="BE70" s="1"/>
       <c r="BF70" s="1"/>
       <c r="BG70" s="1"/>
       <c r="BH70" s="1"/>
       <c r="BI70" s="1"/>
-      <c r="BJ70" s="1"/>
-      <c r="BK70" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ70" s="1">
+        <f>SUM(E70:BI70)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>77</v>
       </c>
@@ -6849,7 +6791,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
-      <c r="AB71" s="6"/>
+      <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
@@ -6859,47 +6801,46 @@
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
+      <c r="AL71" s="4"/>
       <c r="AM71" s="4"/>
       <c r="AN71" s="4"/>
-      <c r="AO71" s="4"/>
+      <c r="AO71" s="4">
+        <v>20</v>
+      </c>
       <c r="AP71" s="4"/>
-      <c r="AQ71" s="4">
+      <c r="AQ71" s="4"/>
+      <c r="AR71" s="2">
         <v>20</v>
       </c>
-      <c r="AR71" s="4"/>
       <c r="AS71" s="2">
         <v>20</v>
       </c>
-      <c r="AT71" s="2">
-        <v>20</v>
-      </c>
+      <c r="AT71" s="2"/>
       <c r="AU71" s="2"/>
-      <c r="AV71" s="2">
+      <c r="AV71" s="2"/>
+      <c r="AW71" s="2">
         <v>10</v>
       </c>
-      <c r="AW71" s="2"/>
-      <c r="AX71" s="2"/>
+      <c r="AX71" s="1"/>
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1"/>
       <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1">
+      <c r="BB71" s="1">
         <v>20</v>
       </c>
+      <c r="BC71" s="1"/>
       <c r="BD71" s="1"/>
       <c r="BE71" s="1"/>
       <c r="BF71" s="1"/>
       <c r="BG71" s="1"/>
       <c r="BH71" s="1"/>
       <c r="BI71" s="1"/>
-      <c r="BJ71" s="1"/>
-      <c r="BK71" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ71" s="1">
+        <f>SUM(E71:BI71)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>78</v>
       </c>
@@ -6939,7 +6880,7 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
-      <c r="AB72" s="6"/>
+      <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
@@ -6949,23 +6890,23 @@
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
-      <c r="AL72" s="1"/>
+      <c r="AL72" s="4"/>
       <c r="AM72" s="4"/>
       <c r="AN72" s="4"/>
       <c r="AO72" s="4"/>
       <c r="AP72" s="4"/>
       <c r="AQ72" s="4"/>
-      <c r="AR72" s="4"/>
+      <c r="AR72" s="2"/>
       <c r="AS72" s="2"/>
       <c r="AT72" s="2"/>
       <c r="AU72" s="2"/>
       <c r="AV72" s="2">
         <v>15</v>
       </c>
-      <c r="AW72" s="2"/>
-      <c r="AX72" s="2">
+      <c r="AW72" s="2">
         <v>15</v>
       </c>
+      <c r="AX72" s="1"/>
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1"/>
       <c r="BA72" s="1"/>
@@ -6977,13 +6918,12 @@
       <c r="BG72" s="1"/>
       <c r="BH72" s="1"/>
       <c r="BI72" s="1"/>
-      <c r="BJ72" s="1"/>
-      <c r="BK72" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ72" s="1">
+        <f>SUM(E72:BI72)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>79</v>
       </c>
@@ -7021,7 +6961,7 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
-      <c r="AB73" s="6"/>
+      <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
@@ -7031,23 +6971,23 @@
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
+      <c r="AL73" s="4"/>
       <c r="AM73" s="4"/>
       <c r="AN73" s="4"/>
-      <c r="AO73" s="4"/>
+      <c r="AO73" s="4">
+        <v>5</v>
+      </c>
       <c r="AP73" s="4"/>
-      <c r="AQ73" s="4">
-        <v>5</v>
-      </c>
-      <c r="AR73" s="4"/>
+      <c r="AQ73" s="4"/>
+      <c r="AR73" s="2"/>
       <c r="AS73" s="2"/>
       <c r="AT73" s="2"/>
       <c r="AU73" s="2"/>
-      <c r="AV73" s="2">
+      <c r="AV73" s="2"/>
+      <c r="AW73" s="2">
         <v>5</v>
       </c>
-      <c r="AW73" s="2"/>
-      <c r="AX73" s="2"/>
+      <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
       <c r="BA73" s="1"/>
@@ -7059,13 +6999,12 @@
       <c r="BG73" s="1"/>
       <c r="BH73" s="1"/>
       <c r="BI73" s="1"/>
-      <c r="BJ73" s="1"/>
-      <c r="BK73" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ73" s="1">
+        <f>SUM(E73:BI73)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>80</v>
       </c>
@@ -7101,7 +7040,7 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
-      <c r="AB74" s="6"/>
+      <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
@@ -7111,23 +7050,23 @@
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
-      <c r="AL74" s="1"/>
+      <c r="AL74" s="4"/>
       <c r="AM74" s="4"/>
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
       <c r="AP74" s="4"/>
       <c r="AQ74" s="4"/>
-      <c r="AR74" s="4"/>
+      <c r="AR74" s="2"/>
       <c r="AS74" s="2"/>
       <c r="AT74" s="2"/>
       <c r="AU74" s="2"/>
       <c r="AV74" s="2">
         <v>10</v>
       </c>
-      <c r="AW74" s="2"/>
-      <c r="AX74" s="2">
+      <c r="AW74" s="2">
         <v>10</v>
       </c>
+      <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1"/>
@@ -7139,13 +7078,12 @@
       <c r="BG74" s="1"/>
       <c r="BH74" s="1"/>
       <c r="BI74" s="1"/>
-      <c r="BJ74" s="1"/>
-      <c r="BK74" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ74" s="1">
+        <f>SUM(E74:BI74)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>81</v>
       </c>
@@ -7185,7 +7123,7 @@
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
-      <c r="AB75" s="6"/>
+      <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
@@ -7195,23 +7133,23 @@
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
-      <c r="AL75" s="1"/>
+      <c r="AL75" s="4"/>
       <c r="AM75" s="4"/>
       <c r="AN75" s="4"/>
-      <c r="AO75" s="4"/>
+      <c r="AO75" s="4">
+        <v>10</v>
+      </c>
       <c r="AP75" s="4"/>
-      <c r="AQ75" s="4">
-        <v>10</v>
-      </c>
-      <c r="AR75" s="4"/>
+      <c r="AQ75" s="4"/>
+      <c r="AR75" s="2"/>
       <c r="AS75" s="2"/>
       <c r="AT75" s="2"/>
       <c r="AU75" s="2"/>
-      <c r="AV75" s="2"/>
+      <c r="AV75" s="2">
+        <v>10</v>
+      </c>
       <c r="AW75" s="2"/>
-      <c r="AX75" s="2">
-        <v>10</v>
-      </c>
+      <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1"/>
@@ -7223,13 +7161,12 @@
       <c r="BG75" s="1"/>
       <c r="BH75" s="1"/>
       <c r="BI75" s="1"/>
-      <c r="BJ75" s="1"/>
-      <c r="BK75" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ75" s="1">
+        <f>SUM(E75:BI75)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>82</v>
       </c>
@@ -7269,7 +7206,7 @@
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
-      <c r="AB76" s="6"/>
+      <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
@@ -7279,15 +7216,15 @@
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
-      <c r="AL76" s="1"/>
+      <c r="AL76" s="4"/>
       <c r="AM76" s="4"/>
       <c r="AN76" s="4"/>
-      <c r="AO76" s="4"/>
+      <c r="AO76" s="4">
+        <v>10</v>
+      </c>
       <c r="AP76" s="4"/>
-      <c r="AQ76" s="4">
-        <v>10</v>
-      </c>
-      <c r="AR76" s="4"/>
+      <c r="AQ76" s="4"/>
+      <c r="AR76" s="2"/>
       <c r="AS76" s="2"/>
       <c r="AT76" s="2"/>
       <c r="AU76" s="2">
@@ -7295,7 +7232,7 @@
       </c>
       <c r="AV76" s="2"/>
       <c r="AW76" s="2"/>
-      <c r="AX76" s="2"/>
+      <c r="AX76" s="1"/>
       <c r="AY76" s="1"/>
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1"/>
@@ -7307,13 +7244,12 @@
       <c r="BG76" s="1"/>
       <c r="BH76" s="1"/>
       <c r="BI76" s="1"/>
-      <c r="BJ76" s="1"/>
-      <c r="BK76" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ76" s="1">
+        <f>SUM(E76:BI76)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>83</v>
       </c>
@@ -7351,7 +7287,7 @@
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
-      <c r="AB77" s="6"/>
+      <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
@@ -7361,19 +7297,19 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
-      <c r="AL77" s="1"/>
+      <c r="AL77" s="4"/>
       <c r="AM77" s="4"/>
       <c r="AN77" s="4"/>
       <c r="AO77" s="4"/>
       <c r="AP77" s="4"/>
       <c r="AQ77" s="4"/>
-      <c r="AR77" s="4"/>
+      <c r="AR77" s="2"/>
       <c r="AS77" s="2"/>
       <c r="AT77" s="2"/>
       <c r="AU77" s="2"/>
       <c r="AV77" s="2"/>
       <c r="AW77" s="2"/>
-      <c r="AX77" s="2"/>
+      <c r="AX77" s="1"/>
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
       <c r="BA77" s="1"/>
@@ -7385,13 +7321,12 @@
       <c r="BG77" s="1"/>
       <c r="BH77" s="1"/>
       <c r="BI77" s="1"/>
-      <c r="BJ77" s="1"/>
-      <c r="BK77" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ77" s="1">
+        <f>SUM(E77:BI77)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>84</v>
       </c>
@@ -7431,7 +7366,7 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
-      <c r="AB78" s="6"/>
+      <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
@@ -7441,23 +7376,23 @@
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
-      <c r="AL78" s="1"/>
+      <c r="AL78" s="4"/>
       <c r="AM78" s="4"/>
       <c r="AN78" s="4"/>
       <c r="AO78" s="4"/>
       <c r="AP78" s="4"/>
       <c r="AQ78" s="4"/>
-      <c r="AR78" s="4"/>
+      <c r="AR78" s="2"/>
       <c r="AS78" s="2"/>
       <c r="AT78" s="2"/>
       <c r="AU78" s="2"/>
       <c r="AV78" s="2">
         <v>5</v>
       </c>
-      <c r="AW78" s="2"/>
-      <c r="AX78" s="2">
+      <c r="AW78" s="2">
         <v>5</v>
       </c>
+      <c r="AX78" s="1"/>
       <c r="AY78" s="1"/>
       <c r="AZ78" s="1"/>
       <c r="BA78" s="1"/>
@@ -7469,13 +7404,12 @@
       <c r="BG78" s="1"/>
       <c r="BH78" s="1"/>
       <c r="BI78" s="1"/>
-      <c r="BJ78" s="1"/>
-      <c r="BK78" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ78" s="1">
+        <f>SUM(E78:BI78)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>85</v>
       </c>
@@ -7511,7 +7445,7 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
-      <c r="AB79" s="6"/>
+      <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
@@ -7521,19 +7455,19 @@
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
+      <c r="AL79" s="4"/>
       <c r="AM79" s="4"/>
       <c r="AN79" s="4"/>
       <c r="AO79" s="4"/>
       <c r="AP79" s="4"/>
       <c r="AQ79" s="4"/>
-      <c r="AR79" s="4"/>
+      <c r="AR79" s="2"/>
       <c r="AS79" s="2"/>
       <c r="AT79" s="2"/>
       <c r="AU79" s="2"/>
       <c r="AV79" s="2"/>
       <c r="AW79" s="2"/>
-      <c r="AX79" s="2"/>
+      <c r="AX79" s="1"/>
       <c r="AY79" s="1"/>
       <c r="AZ79" s="1"/>
       <c r="BA79" s="1"/>
@@ -7541,7 +7475,9 @@
       <c r="BC79" s="1"/>
       <c r="BD79" s="1"/>
       <c r="BE79" s="1"/>
-      <c r="BF79" s="1"/>
+      <c r="BF79" s="1">
+        <v>50</v>
+      </c>
       <c r="BG79" s="1">
         <v>50</v>
       </c>
@@ -7552,19 +7488,16 @@
         <v>50</v>
       </c>
       <c r="BJ79" s="1">
-        <v>50</v>
-      </c>
-      <c r="BK79" s="1">
-        <f t="shared" si="2"/>
+        <f>SUM(E79:BI79)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>86</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>87</v>
@@ -7595,33 +7528,33 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
-      <c r="AB80" s="6"/>
+      <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
+      <c r="AH80" s="1">
+        <v>5</v>
+      </c>
       <c r="AI80" s="1">
         <v>5</v>
       </c>
-      <c r="AJ80" s="1">
-        <v>5</v>
-      </c>
+      <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
+      <c r="AL80" s="4"/>
       <c r="AM80" s="4"/>
       <c r="AN80" s="4"/>
       <c r="AO80" s="4"/>
       <c r="AP80" s="4"/>
       <c r="AQ80" s="4"/>
-      <c r="AR80" s="4"/>
+      <c r="AR80" s="2"/>
       <c r="AS80" s="2"/>
       <c r="AT80" s="2"/>
       <c r="AU80" s="2"/>
       <c r="AV80" s="2"/>
       <c r="AW80" s="2"/>
-      <c r="AX80" s="2"/>
+      <c r="AX80" s="1"/>
       <c r="AY80" s="1"/>
       <c r="AZ80" s="1"/>
       <c r="BA80" s="1"/>
@@ -7633,18 +7566,17 @@
       <c r="BG80" s="1"/>
       <c r="BH80" s="1"/>
       <c r="BI80" s="1"/>
-      <c r="BJ80" s="1"/>
-      <c r="BK80" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ80" s="1">
+        <f>SUM(E80:BI80)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>87</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>87</v>
@@ -7675,33 +7607,33 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
-      <c r="AB81" s="6"/>
+      <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
+      <c r="AH81" s="1">
+        <v>5</v>
+      </c>
       <c r="AI81" s="1">
         <v>5</v>
       </c>
-      <c r="AJ81" s="1">
-        <v>5</v>
-      </c>
+      <c r="AJ81" s="1"/>
       <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
+      <c r="AL81" s="4"/>
       <c r="AM81" s="4"/>
       <c r="AN81" s="4"/>
       <c r="AO81" s="4"/>
       <c r="AP81" s="4"/>
       <c r="AQ81" s="4"/>
-      <c r="AR81" s="4"/>
+      <c r="AR81" s="2"/>
       <c r="AS81" s="2"/>
       <c r="AT81" s="2"/>
       <c r="AU81" s="2"/>
       <c r="AV81" s="2"/>
       <c r="AW81" s="2"/>
-      <c r="AX81" s="2"/>
+      <c r="AX81" s="1"/>
       <c r="AY81" s="1"/>
       <c r="AZ81" s="1"/>
       <c r="BA81" s="1"/>
@@ -7713,21 +7645,20 @@
       <c r="BG81" s="1"/>
       <c r="BH81" s="1"/>
       <c r="BI81" s="1"/>
-      <c r="BJ81" s="1"/>
-      <c r="BK81" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ81" s="1">
+        <f>SUM(E81:BI81)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>88</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>24</v>
@@ -7755,33 +7686,33 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
-      <c r="AB82" s="6"/>
+      <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
+      <c r="AE82" s="1">
+        <v>5</v>
+      </c>
       <c r="AF82" s="1">
         <v>5</v>
       </c>
-      <c r="AG82" s="1">
-        <v>5</v>
-      </c>
+      <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
       <c r="AK82" s="1"/>
-      <c r="AL82" s="1"/>
+      <c r="AL82" s="4"/>
       <c r="AM82" s="4"/>
       <c r="AN82" s="4"/>
       <c r="AO82" s="4"/>
       <c r="AP82" s="4"/>
       <c r="AQ82" s="4"/>
-      <c r="AR82" s="4"/>
+      <c r="AR82" s="2"/>
       <c r="AS82" s="2"/>
       <c r="AT82" s="2"/>
       <c r="AU82" s="2"/>
       <c r="AV82" s="2"/>
       <c r="AW82" s="2"/>
-      <c r="AX82" s="2"/>
+      <c r="AX82" s="1"/>
       <c r="AY82" s="1"/>
       <c r="AZ82" s="1"/>
       <c r="BA82" s="1"/>
@@ -7793,21 +7724,20 @@
       <c r="BG82" s="1"/>
       <c r="BH82" s="1"/>
       <c r="BI82" s="1"/>
-      <c r="BJ82" s="1"/>
-      <c r="BK82" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ82" s="1">
+        <f>SUM(E82:BI82)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>89</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>1</v>
@@ -7835,35 +7765,35 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
-      <c r="AB83" s="6"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1">
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1">
         <v>5</v>
       </c>
-      <c r="AE83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1">
+        <v>5</v>
+      </c>
       <c r="AF83" s="1">
         <v>5</v>
       </c>
-      <c r="AG83" s="1">
-        <v>5</v>
-      </c>
+      <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
       <c r="AK83" s="1"/>
-      <c r="AL83" s="1"/>
+      <c r="AL83" s="4"/>
       <c r="AM83" s="4"/>
       <c r="AN83" s="4"/>
       <c r="AO83" s="4"/>
       <c r="AP83" s="4"/>
       <c r="AQ83" s="4"/>
-      <c r="AR83" s="4"/>
+      <c r="AR83" s="2"/>
       <c r="AS83" s="2"/>
       <c r="AT83" s="2"/>
       <c r="AU83" s="2"/>
       <c r="AV83" s="2"/>
       <c r="AW83" s="2"/>
-      <c r="AX83" s="2"/>
+      <c r="AX83" s="1"/>
       <c r="AY83" s="1"/>
       <c r="AZ83" s="1"/>
       <c r="BA83" s="1"/>
@@ -7875,21 +7805,20 @@
       <c r="BG83" s="1"/>
       <c r="BH83" s="1"/>
       <c r="BI83" s="1"/>
-      <c r="BJ83" s="1"/>
-      <c r="BK83" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ83" s="1">
+        <f>SUM(E83:BI83)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>90</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>24</v>
@@ -7919,7 +7848,7 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
-      <c r="AB84" s="6"/>
+      <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
@@ -7928,22 +7857,22 @@
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
-      <c r="AK84" s="1"/>
-      <c r="AL84" s="1">
+      <c r="AK84" s="1">
         <v>5</v>
       </c>
+      <c r="AL84" s="4"/>
       <c r="AM84" s="4"/>
       <c r="AN84" s="4"/>
       <c r="AO84" s="4"/>
       <c r="AP84" s="4"/>
       <c r="AQ84" s="4"/>
-      <c r="AR84" s="4"/>
+      <c r="AR84" s="2"/>
       <c r="AS84" s="2"/>
       <c r="AT84" s="2"/>
       <c r="AU84" s="2"/>
       <c r="AV84" s="2"/>
       <c r="AW84" s="2"/>
-      <c r="AX84" s="2"/>
+      <c r="AX84" s="1"/>
       <c r="AY84" s="1"/>
       <c r="AZ84" s="1"/>
       <c r="BA84" s="1"/>
@@ -7955,21 +7884,20 @@
       <c r="BG84" s="1"/>
       <c r="BH84" s="1"/>
       <c r="BI84" s="1"/>
-      <c r="BJ84" s="1"/>
-      <c r="BK84" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ84" s="1">
+        <f>SUM(E84:BI84)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>91</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>1</v>
@@ -7999,7 +7927,7 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
-      <c r="AB85" s="6"/>
+      <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
@@ -8007,23 +7935,23 @@
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
-      <c r="AK85" s="1">
+      <c r="AJ85" s="1">
         <v>5</v>
       </c>
-      <c r="AL85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="4"/>
       <c r="AM85" s="4"/>
       <c r="AN85" s="4"/>
       <c r="AO85" s="4"/>
       <c r="AP85" s="4"/>
       <c r="AQ85" s="4"/>
-      <c r="AR85" s="4"/>
+      <c r="AR85" s="2"/>
       <c r="AS85" s="2"/>
       <c r="AT85" s="2"/>
       <c r="AU85" s="2"/>
       <c r="AV85" s="2"/>
       <c r="AW85" s="2"/>
-      <c r="AX85" s="2"/>
+      <c r="AX85" s="1"/>
       <c r="AY85" s="1"/>
       <c r="AZ85" s="1"/>
       <c r="BA85" s="1"/>
@@ -8035,21 +7963,20 @@
       <c r="BG85" s="1"/>
       <c r="BH85" s="1"/>
       <c r="BI85" s="1"/>
-      <c r="BJ85" s="1"/>
-      <c r="BK85" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ85" s="1">
+        <f>SUM(E85:BI85)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>92</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>24</v>
@@ -8083,7 +8010,7 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
-      <c r="AB86" s="6"/>
+      <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
@@ -8093,19 +8020,19 @@
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1"/>
       <c r="AK86" s="1"/>
-      <c r="AL86" s="1"/>
+      <c r="AL86" s="4"/>
       <c r="AM86" s="4"/>
       <c r="AN86" s="4"/>
       <c r="AO86" s="4"/>
       <c r="AP86" s="4"/>
       <c r="AQ86" s="4"/>
-      <c r="AR86" s="4"/>
+      <c r="AR86" s="2"/>
       <c r="AS86" s="2"/>
       <c r="AT86" s="2"/>
       <c r="AU86" s="2"/>
       <c r="AV86" s="2"/>
       <c r="AW86" s="2"/>
-      <c r="AX86" s="2"/>
+      <c r="AX86" s="1"/>
       <c r="AY86" s="1"/>
       <c r="AZ86" s="1"/>
       <c r="BA86" s="1"/>
@@ -8117,21 +8044,20 @@
       <c r="BG86" s="1"/>
       <c r="BH86" s="1"/>
       <c r="BI86" s="1"/>
-      <c r="BJ86" s="1"/>
-      <c r="BK86" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ86" s="1">
+        <f>SUM(E86:BI86)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>93</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>1</v>
@@ -8165,7 +8091,7 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
-      <c r="AB87" s="6"/>
+      <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
@@ -8175,19 +8101,19 @@
       <c r="AI87" s="1"/>
       <c r="AJ87" s="1"/>
       <c r="AK87" s="1"/>
-      <c r="AL87" s="1"/>
+      <c r="AL87" s="4"/>
       <c r="AM87" s="4"/>
       <c r="AN87" s="4"/>
       <c r="AO87" s="4"/>
       <c r="AP87" s="4"/>
       <c r="AQ87" s="4"/>
-      <c r="AR87" s="4"/>
+      <c r="AR87" s="2"/>
       <c r="AS87" s="2"/>
       <c r="AT87" s="2"/>
       <c r="AU87" s="2"/>
       <c r="AV87" s="2"/>
       <c r="AW87" s="2"/>
-      <c r="AX87" s="2"/>
+      <c r="AX87" s="1"/>
       <c r="AY87" s="1"/>
       <c r="AZ87" s="1"/>
       <c r="BA87" s="1"/>
@@ -8199,18 +8125,17 @@
       <c r="BG87" s="1"/>
       <c r="BH87" s="1"/>
       <c r="BI87" s="1"/>
-      <c r="BJ87" s="1"/>
-      <c r="BK87" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ87" s="1">
+        <f>SUM(E87:BI87)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>94</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>97</v>
@@ -8241,7 +8166,7 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
-      <c r="AB88" s="6"/>
+      <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
@@ -8251,23 +8176,23 @@
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
       <c r="AK88" s="1"/>
-      <c r="AL88" s="1"/>
+      <c r="AL88" s="4"/>
       <c r="AM88" s="4"/>
       <c r="AN88" s="4"/>
       <c r="AO88" s="4"/>
       <c r="AP88" s="4"/>
       <c r="AQ88" s="4"/>
-      <c r="AR88" s="4"/>
+      <c r="AR88" s="2"/>
       <c r="AS88" s="2"/>
       <c r="AT88" s="2"/>
       <c r="AU88" s="2"/>
       <c r="AV88" s="2">
         <v>10</v>
       </c>
-      <c r="AW88" s="2"/>
-      <c r="AX88" s="2">
+      <c r="AW88" s="2">
         <v>10</v>
       </c>
+      <c r="AX88" s="1"/>
       <c r="AY88" s="1"/>
       <c r="AZ88" s="1"/>
       <c r="BA88" s="1"/>
@@ -8279,18 +8204,17 @@
       <c r="BG88" s="1"/>
       <c r="BH88" s="1"/>
       <c r="BI88" s="1"/>
-      <c r="BJ88" s="1"/>
-      <c r="BK88" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ88" s="1">
+        <f>SUM(E88:BI88)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>95</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>97</v>
@@ -8325,7 +8249,7 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
-      <c r="AB89" s="6"/>
+      <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
@@ -8335,23 +8259,23 @@
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
       <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
+      <c r="AL89" s="4"/>
       <c r="AM89" s="4"/>
       <c r="AN89" s="4"/>
       <c r="AO89" s="4"/>
       <c r="AP89" s="4"/>
       <c r="AQ89" s="4"/>
-      <c r="AR89" s="4"/>
+      <c r="AR89" s="2"/>
       <c r="AS89" s="2"/>
       <c r="AT89" s="2"/>
       <c r="AU89" s="2"/>
       <c r="AV89" s="2">
         <v>15</v>
       </c>
-      <c r="AW89" s="2"/>
-      <c r="AX89" s="2">
+      <c r="AW89" s="2">
         <v>15</v>
       </c>
+      <c r="AX89" s="1"/>
       <c r="AY89" s="1"/>
       <c r="AZ89" s="1"/>
       <c r="BA89" s="1"/>
@@ -8363,13 +8287,12 @@
       <c r="BG89" s="1"/>
       <c r="BH89" s="1"/>
       <c r="BI89" s="1"/>
-      <c r="BJ89" s="1"/>
-      <c r="BK89" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ89" s="1">
+        <f>SUM(E89:BI89)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>96</v>
       </c>
@@ -8405,7 +8328,7 @@
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
-      <c r="AB90" s="6"/>
+      <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
@@ -8415,23 +8338,23 @@
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
       <c r="AK90" s="1"/>
-      <c r="AL90" s="1"/>
+      <c r="AL90" s="4"/>
       <c r="AM90" s="4"/>
       <c r="AN90" s="4"/>
       <c r="AO90" s="4"/>
       <c r="AP90" s="4"/>
       <c r="AQ90" s="4"/>
-      <c r="AR90" s="4"/>
+      <c r="AR90" s="2"/>
       <c r="AS90" s="2"/>
       <c r="AT90" s="2"/>
       <c r="AU90" s="2"/>
       <c r="AV90" s="2">
         <v>10</v>
       </c>
-      <c r="AW90" s="2"/>
-      <c r="AX90" s="2">
+      <c r="AW90" s="2">
         <v>10</v>
       </c>
+      <c r="AX90" s="1"/>
       <c r="AY90" s="1"/>
       <c r="AZ90" s="1"/>
       <c r="BA90" s="1"/>
@@ -8443,13 +8366,12 @@
       <c r="BG90" s="1"/>
       <c r="BH90" s="1"/>
       <c r="BI90" s="1"/>
-      <c r="BJ90" s="1"/>
-      <c r="BK90" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ90" s="1">
+        <f>SUM(E90:BI90)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>97</v>
       </c>
@@ -8485,10 +8407,10 @@
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
-      <c r="AB91" s="6"/>
-      <c r="AC91" s="1">
+      <c r="AB91" s="1">
         <v>10</v>
       </c>
+      <c r="AC91" s="1"/>
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
@@ -8497,19 +8419,19 @@
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
       <c r="AK91" s="1"/>
-      <c r="AL91" s="1"/>
+      <c r="AL91" s="4"/>
       <c r="AM91" s="4"/>
       <c r="AN91" s="4"/>
       <c r="AO91" s="4"/>
       <c r="AP91" s="4"/>
       <c r="AQ91" s="4"/>
-      <c r="AR91" s="4"/>
+      <c r="AR91" s="2"/>
       <c r="AS91" s="2"/>
       <c r="AT91" s="2"/>
       <c r="AU91" s="2"/>
       <c r="AV91" s="2"/>
       <c r="AW91" s="2"/>
-      <c r="AX91" s="2"/>
+      <c r="AX91" s="1"/>
       <c r="AY91" s="1"/>
       <c r="AZ91" s="1"/>
       <c r="BA91" s="1"/>
@@ -8521,13 +8443,12 @@
       <c r="BG91" s="1"/>
       <c r="BH91" s="1"/>
       <c r="BI91" s="1"/>
-      <c r="BJ91" s="1"/>
-      <c r="BK91" s="1">
-        <f t="shared" si="2"/>
+      <c r="BJ91" s="1">
+        <f>SUM(E91:BI91)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>98</v>
       </c>
@@ -8563,10 +8484,10 @@
       <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
-      <c r="AB92" s="6"/>
-      <c r="AC92" s="1">
+      <c r="AB92" s="1">
         <v>50</v>
       </c>
+      <c r="AC92" s="1"/>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
@@ -8575,19 +8496,19 @@
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1"/>
       <c r="AK92" s="1"/>
-      <c r="AL92" s="1"/>
+      <c r="AL92" s="4"/>
       <c r="AM92" s="4"/>
       <c r="AN92" s="4"/>
       <c r="AO92" s="4"/>
       <c r="AP92" s="4"/>
       <c r="AQ92" s="4"/>
-      <c r="AR92" s="4"/>
+      <c r="AR92" s="2"/>
       <c r="AS92" s="2"/>
       <c r="AT92" s="2"/>
       <c r="AU92" s="2"/>
       <c r="AV92" s="2"/>
       <c r="AW92" s="2"/>
-      <c r="AX92" s="2"/>
+      <c r="AX92" s="1"/>
       <c r="AY92" s="1"/>
       <c r="AZ92" s="1"/>
       <c r="BA92" s="1"/>
@@ -8599,13 +8520,12 @@
       <c r="BG92" s="1"/>
       <c r="BH92" s="1"/>
       <c r="BI92" s="1"/>
-      <c r="BJ92" s="1"/>
-      <c r="BK92" s="1">
-        <f t="shared" ref="BK92:BK123" si="3">SUM(E92:BJ92)</f>
+      <c r="BJ92" s="1">
+        <f>SUM(E92:BI92)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>99</v>
       </c>
@@ -8641,10 +8561,10 @@
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
-      <c r="AB93" s="6"/>
-      <c r="AC93" s="1">
+      <c r="AB93" s="1">
         <v>200</v>
       </c>
+      <c r="AC93" s="1"/>
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
@@ -8653,19 +8573,19 @@
       <c r="AI93" s="1"/>
       <c r="AJ93" s="1"/>
       <c r="AK93" s="1"/>
-      <c r="AL93" s="1"/>
+      <c r="AL93" s="4"/>
       <c r="AM93" s="4"/>
       <c r="AN93" s="4"/>
       <c r="AO93" s="4"/>
       <c r="AP93" s="4"/>
       <c r="AQ93" s="4"/>
-      <c r="AR93" s="4"/>
+      <c r="AR93" s="2"/>
       <c r="AS93" s="2"/>
       <c r="AT93" s="2"/>
       <c r="AU93" s="2"/>
       <c r="AV93" s="2"/>
       <c r="AW93" s="2"/>
-      <c r="AX93" s="2"/>
+      <c r="AX93" s="1"/>
       <c r="AY93" s="1"/>
       <c r="AZ93" s="1"/>
       <c r="BA93" s="1"/>
@@ -8677,13 +8597,12 @@
       <c r="BG93" s="1"/>
       <c r="BH93" s="1"/>
       <c r="BI93" s="1"/>
-      <c r="BJ93" s="1"/>
-      <c r="BK93" s="1">
-        <f t="shared" si="3"/>
+      <c r="BJ93" s="1">
+        <f>SUM(E93:BI93)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>100</v>
       </c>
@@ -8721,7 +8640,7 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
-      <c r="AB94" s="6"/>
+      <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
@@ -8731,19 +8650,19 @@
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1"/>
       <c r="AK94" s="1"/>
-      <c r="AL94" s="1"/>
+      <c r="AL94" s="4"/>
       <c r="AM94" s="4"/>
       <c r="AN94" s="4"/>
       <c r="AO94" s="4"/>
       <c r="AP94" s="4"/>
       <c r="AQ94" s="4"/>
-      <c r="AR94" s="4"/>
+      <c r="AR94" s="2"/>
       <c r="AS94" s="2"/>
       <c r="AT94" s="2"/>
       <c r="AU94" s="2"/>
       <c r="AV94" s="2"/>
       <c r="AW94" s="2"/>
-      <c r="AX94" s="2"/>
+      <c r="AX94" s="1"/>
       <c r="AY94" s="1"/>
       <c r="AZ94" s="1"/>
       <c r="BA94" s="1"/>
@@ -8755,13 +8674,12 @@
       <c r="BG94" s="1"/>
       <c r="BH94" s="1"/>
       <c r="BI94" s="1"/>
-      <c r="BJ94" s="1"/>
-      <c r="BK94" s="1">
-        <f t="shared" si="3"/>
+      <c r="BJ94" s="1">
+        <f>SUM(E94:BI94)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>101</v>
       </c>
@@ -8801,7 +8719,7 @@
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
-      <c r="AB95" s="6"/>
+      <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
@@ -8811,23 +8729,23 @@
       <c r="AI95" s="1"/>
       <c r="AJ95" s="1"/>
       <c r="AK95" s="1"/>
-      <c r="AL95" s="1"/>
+      <c r="AL95" s="4"/>
       <c r="AM95" s="4"/>
       <c r="AN95" s="4"/>
       <c r="AO95" s="4"/>
-      <c r="AP95" s="4"/>
+      <c r="AP95" s="4">
+        <v>8</v>
+      </c>
       <c r="AQ95" s="4"/>
-      <c r="AR95" s="4">
+      <c r="AR95" s="2">
         <v>8</v>
       </c>
-      <c r="AS95" s="2">
-        <v>8</v>
-      </c>
+      <c r="AS95" s="2"/>
       <c r="AT95" s="2"/>
       <c r="AU95" s="2"/>
       <c r="AV95" s="2"/>
       <c r="AW95" s="2"/>
-      <c r="AX95" s="2"/>
+      <c r="AX95" s="1"/>
       <c r="AY95" s="1"/>
       <c r="AZ95" s="1"/>
       <c r="BA95" s="1"/>
@@ -8839,13 +8757,12 @@
       <c r="BG95" s="1"/>
       <c r="BH95" s="1"/>
       <c r="BI95" s="1"/>
-      <c r="BJ95" s="1"/>
-      <c r="BK95" s="1">
-        <f t="shared" si="3"/>
+      <c r="BJ95" s="1">
+        <f>SUM(E95:BI95)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>102</v>
       </c>
@@ -8881,7 +8798,7 @@
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
-      <c r="AB96" s="6"/>
+      <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
@@ -8891,45 +8808,44 @@
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
       <c r="AK96" s="1"/>
-      <c r="AL96" s="1"/>
+      <c r="AL96" s="4"/>
       <c r="AM96" s="4"/>
       <c r="AN96" s="4"/>
       <c r="AO96" s="4"/>
       <c r="AP96" s="4"/>
       <c r="AQ96" s="4"/>
-      <c r="AR96" s="4"/>
+      <c r="AR96" s="2"/>
       <c r="AS96" s="2"/>
       <c r="AT96" s="2"/>
       <c r="AU96" s="2"/>
       <c r="AV96" s="2"/>
       <c r="AW96" s="2"/>
-      <c r="AX96" s="2"/>
+      <c r="AX96" s="1"/>
       <c r="AY96" s="1"/>
       <c r="AZ96" s="1"/>
       <c r="BA96" s="1"/>
       <c r="BB96" s="1"/>
       <c r="BC96" s="1"/>
-      <c r="BD96" s="1"/>
+      <c r="BD96" s="1">
+        <v>50</v>
+      </c>
       <c r="BE96" s="1">
         <v>50</v>
       </c>
-      <c r="BF96" s="1">
+      <c r="BF96" s="1"/>
+      <c r="BG96" s="1"/>
+      <c r="BH96" s="1">
         <v>50</v>
       </c>
-      <c r="BG96" s="1"/>
-      <c r="BH96" s="1"/>
       <c r="BI96" s="1">
         <v>50</v>
       </c>
       <c r="BJ96" s="1">
-        <v>50</v>
-      </c>
-      <c r="BK96" s="1">
-        <f t="shared" si="3"/>
+        <f>SUM(E96:BI96)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
         <v>101</v>
@@ -8937,140 +8853,140 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="6">
-        <f t="shared" ref="E97:AJ97" si="4">SUM(E2:E96)</f>
+        <f t="shared" ref="E97:AI97" si="0">SUM(E2:E96)</f>
         <v>47</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="G97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="H97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="I97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="J97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="L97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="N97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="O97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="P97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Q97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="S97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="T97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="U97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="W97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="X97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Y97" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Z97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AA97" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB97" s="1">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="AC97" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AA97" s="6">
-        <f t="shared" si="4"/>
+      <c r="AD97" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AE97" s="1">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AB97" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AC97" s="1">
-        <f t="shared" si="4"/>
-        <v>277</v>
-      </c>
-      <c r="AD97" s="1">
-        <f t="shared" si="4"/>
+      <c r="AF97" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AG97" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH97" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AI97" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AE97" s="1">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="AF97" s="1">
-        <f t="shared" si="4"/>
+      <c r="AJ97" s="1">
+        <f>SUM(AJ2:AJ96)</f>
         <v>25</v>
-      </c>
-      <c r="AG97" s="1">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="AH97" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AI97" s="1">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="AJ97" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
       </c>
       <c r="AK97" s="1">
         <f>SUM(AK2:AK96)</f>
-        <v>25</v>
-      </c>
-      <c r="AL97" s="1">
+        <v>50</v>
+      </c>
+      <c r="AL97" s="4">
         <f>SUM(AL2:AL96)</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM97" s="4">
         <f>SUM(AM2:AM96)</f>
@@ -9082,27 +8998,27 @@
       </c>
       <c r="AO97" s="4">
         <f>SUM(AO2:AO96)</f>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AP97" s="4">
         <f>SUM(AP2:AP96)</f>
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="AQ97" s="4">
         <f>SUM(AQ2:AQ96)</f>
-        <v>45</v>
-      </c>
-      <c r="AR97" s="4">
+        <v>85</v>
+      </c>
+      <c r="AR97" s="2">
         <f>SUM(AR2:AR96)</f>
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="AS97" s="2">
         <f>SUM(AS2:AS96)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AT97" s="2">
         <f>SUM(AT2:AT96)</f>
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="AU97" s="2">
         <f>SUM(AU2:AU96)</f>
@@ -9110,15 +9026,15 @@
       </c>
       <c r="AV97" s="2">
         <f>SUM(AV2:AV96)</f>
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AW97" s="2">
         <f>SUM(AW2:AW96)</f>
-        <v>10</v>
-      </c>
-      <c r="AX97" s="2">
+        <v>190</v>
+      </c>
+      <c r="AX97" s="1">
         <f>SUM(AX2:AX96)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AY97" s="1">
         <f>SUM(AY2:AY96)</f>
@@ -9134,15 +9050,15 @@
       </c>
       <c r="BB97" s="1">
         <f>SUM(BB2:BB96)</f>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BC97" s="1">
         <f>SUM(BC2:BC96)</f>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="BD97" s="1">
         <f>SUM(BD2:BD96)</f>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="BE97" s="1">
         <f>SUM(BE2:BE96)</f>
@@ -9150,7 +9066,7 @@
       </c>
       <c r="BF97" s="1">
         <f>SUM(BF2:BF96)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BG97" s="1">
         <f>SUM(BG2:BG96)</f>
@@ -9158,20 +9074,172 @@
       </c>
       <c r="BH97" s="1">
         <f>SUM(BH2:BH96)</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="BI97" s="1">
         <f>SUM(BI2:BI96)</f>
         <v>150</v>
       </c>
-      <c r="BJ97" s="1">
-        <f>SUM(BJ2:BJ96)</f>
-        <v>150</v>
-      </c>
-      <c r="BK97" s="1"/>
+      <c r="BJ97" s="1"/>
+    </row>
+    <row r="98" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A98" s="1"/>
+      <c r="B98" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1">
+        <v>10</v>
+      </c>
+      <c r="F98" s="1">
+        <v>4</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>13</v>
+      </c>
+      <c r="I98" s="1">
+        <v>4</v>
+      </c>
+      <c r="J98" s="1">
+        <v>20</v>
+      </c>
+      <c r="K98" s="1">
+        <v>3</v>
+      </c>
+      <c r="L98" s="1">
+        <v>10</v>
+      </c>
+      <c r="M98" s="1">
+        <v>2</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
+      <c r="O98" s="1">
+        <v>3</v>
+      </c>
+      <c r="P98" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>13</v>
+      </c>
+      <c r="R98" s="1">
+        <v>2</v>
+      </c>
+      <c r="S98" s="1">
+        <v>12</v>
+      </c>
+      <c r="T98" s="1">
+        <v>2</v>
+      </c>
+      <c r="U98" s="1">
+        <v>10</v>
+      </c>
+      <c r="V98" s="1">
+        <v>14</v>
+      </c>
+      <c r="W98" s="1">
+        <v>27</v>
+      </c>
+      <c r="X98" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y98" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z98" s="1">
+        <v>84</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>32</v>
+      </c>
+      <c r="AB98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="14">
+        <v>11</v>
+      </c>
+      <c r="AM98" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN98" s="14">
+        <v>10</v>
+      </c>
+      <c r="AO98" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP98" s="14">
+        <v>8</v>
+      </c>
+      <c r="AQ98" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR98" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS98" s="14">
+        <v>6</v>
+      </c>
+      <c r="AT98" s="14">
+        <v>17</v>
+      </c>
+      <c r="AU98" s="14">
+        <v>15</v>
+      </c>
+      <c r="AV98" s="14">
+        <v>10</v>
+      </c>
+      <c r="AW98" s="14">
+        <v>6</v>
+      </c>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="1"/>
+      <c r="BE98" s="1"/>
+      <c r="BF98" s="1"/>
+      <c r="BG98" s="1"/>
+      <c r="BH98" s="1"/>
+      <c r="BI98" s="1"/>
+      <c r="BJ98" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BK97"/>
+  <autoFilter ref="A1:BJ97"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9194,13 +9262,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
